--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>DUO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>503800</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>319400</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>251700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>206500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>397800</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>252700</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>198300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>174600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>106000</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>66700</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>53400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>32000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +812,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>101500</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>28400</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>26800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>581100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>309700</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>252400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>257500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-77400</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-50900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-70200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>4700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-42900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-70900</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-46300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-71400</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-46500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-177600</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-20200</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-31900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-75100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-177600</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-20200</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-31900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-75100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-177600</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-20200</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-31900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-75100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>154700</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>62200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>80400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>143300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>40900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>306900</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>189600</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>116000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>27200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>59500</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>78700</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>179700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>33900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>522800</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>340500</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>380700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>245300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>86800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>56400</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>6900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>612800</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>403600</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>398600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>263700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>266000</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>158100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>83200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>35800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>68700</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>55400</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>92900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>53800</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>65500</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>116300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>116800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>388400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>279000</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>292400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>152600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>390100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>280800</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>293000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>152800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2379,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>300</v>
+        <v>385300</v>
       </c>
       <c r="F70" s="3">
-        <v>300</v>
+        <v>331100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>320100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-409600</v>
       </c>
       <c r="E72" s="3">
-        <v>-200</v>
+        <v>-231700</v>
       </c>
       <c r="F72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-211500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-179600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>222700</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-262500</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-225500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-209200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-177600</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-20200</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-31900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-75100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>18100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-94400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-24800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-21200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-49000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-27300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>83100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>-37500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>92800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6600</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>75500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-65700</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>22500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-45800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>503800</v>
+        <v>522700</v>
       </c>
       <c r="E8" s="3">
-        <v>319400</v>
+        <v>331400</v>
       </c>
       <c r="F8" s="3">
-        <v>251700</v>
+        <v>261200</v>
       </c>
       <c r="G8" s="3">
-        <v>206500</v>
+        <v>214300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>397800</v>
+        <v>412800</v>
       </c>
       <c r="E9" s="3">
-        <v>252700</v>
+        <v>262200</v>
       </c>
       <c r="F9" s="3">
-        <v>198300</v>
+        <v>205800</v>
       </c>
       <c r="G9" s="3">
-        <v>174600</v>
+        <v>181200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>106000</v>
+        <v>109900</v>
       </c>
       <c r="E10" s="3">
-        <v>66700</v>
+        <v>69200</v>
       </c>
       <c r="F10" s="3">
-        <v>53400</v>
+        <v>55400</v>
       </c>
       <c r="G10" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>101500</v>
+        <v>105300</v>
       </c>
       <c r="E12" s="3">
-        <v>28400</v>
+        <v>29500</v>
       </c>
       <c r="F12" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="G12" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>581100</v>
+        <v>603000</v>
       </c>
       <c r="E17" s="3">
-        <v>309700</v>
+        <v>321400</v>
       </c>
       <c r="F17" s="3">
-        <v>252400</v>
+        <v>261900</v>
       </c>
       <c r="G17" s="3">
-        <v>257500</v>
+        <v>267200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-77400</v>
+        <v>-80300</v>
       </c>
       <c r="E18" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-50900</v>
+        <v>-52800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
         <v>1100</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-70200</v>
+        <v>-72900</v>
       </c>
       <c r="E21" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="F21" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G21" s="3">
-        <v>-42900</v>
+        <v>-44500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70900</v>
+        <v>-73600</v>
       </c>
       <c r="E23" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="3">
-        <v>-46300</v>
+        <v>-48100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-71400</v>
+        <v>-74100</v>
       </c>
       <c r="E26" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>-46500</v>
+        <v>-48200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-177600</v>
+        <v>-184300</v>
       </c>
       <c r="E27" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="F27" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="G27" s="3">
-        <v>-75100</v>
+        <v>-77900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
         <v>-1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-177600</v>
+        <v>-184300</v>
       </c>
       <c r="E33" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="F33" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="G33" s="3">
-        <v>-75100</v>
+        <v>-77900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-177600</v>
+        <v>-184300</v>
       </c>
       <c r="E35" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="F35" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="G35" s="3">
-        <v>-75100</v>
+        <v>-77900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154700</v>
+        <v>160300</v>
       </c>
       <c r="E41" s="3">
-        <v>62200</v>
+        <v>64400</v>
       </c>
       <c r="F41" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="G41" s="3">
-        <v>143300</v>
+        <v>148500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="F42" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G42" s="3">
-        <v>40900</v>
+        <v>42300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>306900</v>
+        <v>318100</v>
       </c>
       <c r="E43" s="3">
-        <v>189600</v>
+        <v>196400</v>
       </c>
       <c r="F43" s="3">
-        <v>116000</v>
+        <v>120200</v>
       </c>
       <c r="G43" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59500</v>
+        <v>61700</v>
       </c>
       <c r="E45" s="3">
-        <v>78700</v>
+        <v>81600</v>
       </c>
       <c r="F45" s="3">
-        <v>179700</v>
+        <v>186200</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>35100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>522800</v>
+        <v>541700</v>
       </c>
       <c r="E46" s="3">
-        <v>340500</v>
+        <v>352800</v>
       </c>
       <c r="F46" s="3">
-        <v>380700</v>
+        <v>394400</v>
       </c>
       <c r="G46" s="3">
-        <v>245300</v>
+        <v>254200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86800</v>
+        <v>89900</v>
       </c>
       <c r="E47" s="3">
-        <v>56400</v>
+        <v>58400</v>
       </c>
       <c r="F47" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G47" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1783,10 +1783,10 @@
         <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G48" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G52" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>612800</v>
+        <v>635000</v>
       </c>
       <c r="E54" s="3">
-        <v>403600</v>
+        <v>418200</v>
       </c>
       <c r="F54" s="3">
-        <v>398600</v>
+        <v>413000</v>
       </c>
       <c r="G54" s="3">
-        <v>263700</v>
+        <v>273300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>266000</v>
+        <v>275600</v>
       </c>
       <c r="E57" s="3">
-        <v>158100</v>
+        <v>163900</v>
       </c>
       <c r="F57" s="3">
-        <v>83200</v>
+        <v>86200</v>
       </c>
       <c r="G57" s="3">
-        <v>35800</v>
+        <v>37000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68700</v>
+        <v>71200</v>
       </c>
       <c r="E58" s="3">
-        <v>55400</v>
+        <v>57400</v>
       </c>
       <c r="F58" s="3">
-        <v>92900</v>
+        <v>96300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53800</v>
+        <v>55700</v>
       </c>
       <c r="E59" s="3">
-        <v>65500</v>
+        <v>67900</v>
       </c>
       <c r="F59" s="3">
-        <v>116300</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>116800</v>
+        <v>121000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>388400</v>
+        <v>402500</v>
       </c>
       <c r="E60" s="3">
-        <v>279000</v>
+        <v>289100</v>
       </c>
       <c r="F60" s="3">
-        <v>292400</v>
+        <v>303000</v>
       </c>
       <c r="G60" s="3">
-        <v>152600</v>
+        <v>158100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>390100</v>
+        <v>404200</v>
       </c>
       <c r="E66" s="3">
-        <v>280800</v>
+        <v>291000</v>
       </c>
       <c r="F66" s="3">
-        <v>293000</v>
+        <v>303600</v>
       </c>
       <c r="G66" s="3">
-        <v>152800</v>
+        <v>158300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>385300</v>
+        <v>399200</v>
       </c>
       <c r="F70" s="3">
-        <v>331100</v>
+        <v>343100</v>
       </c>
       <c r="G70" s="3">
-        <v>320100</v>
+        <v>331600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-409600</v>
+        <v>-424400</v>
       </c>
       <c r="E72" s="3">
-        <v>-231700</v>
+        <v>-240100</v>
       </c>
       <c r="F72" s="3">
-        <v>-211500</v>
+        <v>-219200</v>
       </c>
       <c r="G72" s="3">
-        <v>-179600</v>
+        <v>-186100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>222700</v>
+        <v>230800</v>
       </c>
       <c r="E76" s="3">
-        <v>-262500</v>
+        <v>-272000</v>
       </c>
       <c r="F76" s="3">
-        <v>-225500</v>
+        <v>-233700</v>
       </c>
       <c r="G76" s="3">
-        <v>-209200</v>
+        <v>-216600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-177600</v>
+        <v>-184300</v>
       </c>
       <c r="E81" s="3">
-        <v>-20200</v>
+        <v>-20900</v>
       </c>
       <c r="F81" s="3">
-        <v>-31900</v>
+        <v>-33100</v>
       </c>
       <c r="G81" s="3">
-        <v>-75100</v>
+        <v>-77900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2711,13 +2711,13 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="E89" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="F89" s="3">
-        <v>-94400</v>
+        <v>-97900</v>
       </c>
       <c r="G89" s="3">
-        <v>-24800</v>
+        <v>-25700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2938,10 +2938,10 @@
         <v>-1200</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="E94" s="3">
-        <v>-49000</v>
+        <v>-50800</v>
       </c>
       <c r="F94" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="G94" s="3">
-        <v>-27300</v>
+        <v>-28300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83100</v>
+        <v>86200</v>
       </c>
       <c r="E100" s="3">
-        <v>-37500</v>
+        <v>-38900</v>
       </c>
       <c r="F100" s="3">
-        <v>92800</v>
+        <v>96300</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="G101" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75500</v>
+        <v>78400</v>
       </c>
       <c r="E102" s="3">
-        <v>-65700</v>
+        <v>-68200</v>
       </c>
       <c r="F102" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="G102" s="3">
-        <v>-45800</v>
+        <v>-47600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>522700</v>
+        <v>547500</v>
       </c>
       <c r="E8" s="3">
-        <v>331400</v>
+        <v>347200</v>
       </c>
       <c r="F8" s="3">
-        <v>261200</v>
+        <v>273600</v>
       </c>
       <c r="G8" s="3">
-        <v>214300</v>
+        <v>224500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>412800</v>
+        <v>432400</v>
       </c>
       <c r="E9" s="3">
-        <v>262200</v>
+        <v>274700</v>
       </c>
       <c r="F9" s="3">
-        <v>205800</v>
+        <v>215500</v>
       </c>
       <c r="G9" s="3">
-        <v>181200</v>
+        <v>189700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>109900</v>
+        <v>115200</v>
       </c>
       <c r="E10" s="3">
-        <v>69200</v>
+        <v>72500</v>
       </c>
       <c r="F10" s="3">
-        <v>55400</v>
+        <v>58000</v>
       </c>
       <c r="G10" s="3">
-        <v>33200</v>
+        <v>34700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>105300</v>
+        <v>110300</v>
       </c>
       <c r="E12" s="3">
-        <v>29500</v>
+        <v>30900</v>
       </c>
       <c r="F12" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G12" s="3">
         <v>27800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>26500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>603000</v>
+        <v>631600</v>
       </c>
       <c r="E17" s="3">
-        <v>321400</v>
+        <v>336600</v>
       </c>
       <c r="F17" s="3">
-        <v>261900</v>
+        <v>274300</v>
       </c>
       <c r="G17" s="3">
-        <v>267200</v>
+        <v>279800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-80300</v>
+        <v>-84100</v>
       </c>
       <c r="E18" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-52800</v>
+        <v>-55300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-72900</v>
+        <v>-76300</v>
       </c>
       <c r="E21" s="3">
-        <v>17800</v>
+        <v>18700</v>
       </c>
       <c r="F21" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="G21" s="3">
-        <v>-44500</v>
+        <v>-46600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-73600</v>
+        <v>-77100</v>
       </c>
       <c r="E23" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="F23" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G23" s="3">
-        <v>-48100</v>
+        <v>-50300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74100</v>
+        <v>-77600</v>
       </c>
       <c r="E26" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>-48200</v>
+        <v>-50500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-184300</v>
+        <v>-193000</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="F27" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="G27" s="3">
-        <v>-77900</v>
+        <v>-81600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-184300</v>
+        <v>-193000</v>
       </c>
       <c r="E33" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="F33" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="G33" s="3">
-        <v>-77900</v>
+        <v>-81600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-184300</v>
+        <v>-193000</v>
       </c>
       <c r="E35" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="F35" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="G35" s="3">
-        <v>-77900</v>
+        <v>-81600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160300</v>
+        <v>167900</v>
       </c>
       <c r="E41" s="3">
-        <v>64400</v>
+        <v>67500</v>
       </c>
       <c r="F41" s="3">
-        <v>83300</v>
+        <v>87300</v>
       </c>
       <c r="G41" s="3">
-        <v>148500</v>
+        <v>155600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1600,13 +1600,13 @@
         <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="F42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G42" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>318100</v>
+        <v>333100</v>
       </c>
       <c r="E43" s="3">
-        <v>196400</v>
+        <v>205800</v>
       </c>
       <c r="F43" s="3">
-        <v>120200</v>
+        <v>125900</v>
       </c>
       <c r="G43" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61700</v>
+        <v>64600</v>
       </c>
       <c r="E45" s="3">
-        <v>81600</v>
+        <v>85400</v>
       </c>
       <c r="F45" s="3">
-        <v>186200</v>
+        <v>195000</v>
       </c>
       <c r="G45" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>541700</v>
+        <v>567400</v>
       </c>
       <c r="E46" s="3">
-        <v>352800</v>
+        <v>369500</v>
       </c>
       <c r="F46" s="3">
-        <v>394400</v>
+        <v>413100</v>
       </c>
       <c r="G46" s="3">
-        <v>254200</v>
+        <v>266200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89900</v>
+        <v>94200</v>
       </c>
       <c r="E47" s="3">
-        <v>58400</v>
+        <v>61200</v>
       </c>
       <c r="F47" s="3">
-        <v>13700</v>
+        <v>14400</v>
       </c>
       <c r="G47" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="F48" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F52" s="3">
         <v>1700</v>
       </c>
       <c r="G52" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>635000</v>
+        <v>665100</v>
       </c>
       <c r="E54" s="3">
-        <v>418200</v>
+        <v>438000</v>
       </c>
       <c r="F54" s="3">
-        <v>413000</v>
+        <v>432600</v>
       </c>
       <c r="G54" s="3">
-        <v>273300</v>
+        <v>286200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>275600</v>
+        <v>288700</v>
       </c>
       <c r="E57" s="3">
-        <v>163900</v>
+        <v>171600</v>
       </c>
       <c r="F57" s="3">
-        <v>86200</v>
+        <v>90300</v>
       </c>
       <c r="G57" s="3">
-        <v>37000</v>
+        <v>38800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71200</v>
+        <v>74500</v>
       </c>
       <c r="E58" s="3">
-        <v>57400</v>
+        <v>60100</v>
       </c>
       <c r="F58" s="3">
-        <v>96300</v>
+        <v>100900</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55700</v>
+        <v>58300</v>
       </c>
       <c r="E59" s="3">
-        <v>67900</v>
+        <v>71100</v>
       </c>
       <c r="F59" s="3">
-        <v>120500</v>
+        <v>126200</v>
       </c>
       <c r="G59" s="3">
-        <v>121000</v>
+        <v>126800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>402500</v>
+        <v>421500</v>
       </c>
       <c r="E60" s="3">
-        <v>289100</v>
+        <v>302800</v>
       </c>
       <c r="F60" s="3">
-        <v>303000</v>
+        <v>317300</v>
       </c>
       <c r="G60" s="3">
-        <v>158100</v>
+        <v>165600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>404200</v>
+        <v>423400</v>
       </c>
       <c r="E66" s="3">
-        <v>291000</v>
+        <v>304800</v>
       </c>
       <c r="F66" s="3">
-        <v>303600</v>
+        <v>318000</v>
       </c>
       <c r="G66" s="3">
-        <v>158300</v>
+        <v>165800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>399200</v>
+        <v>418100</v>
       </c>
       <c r="F70" s="3">
-        <v>343100</v>
+        <v>359400</v>
       </c>
       <c r="G70" s="3">
-        <v>331600</v>
+        <v>347400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-424400</v>
+        <v>-444500</v>
       </c>
       <c r="E72" s="3">
-        <v>-240100</v>
+        <v>-251500</v>
       </c>
       <c r="F72" s="3">
-        <v>-219200</v>
+        <v>-229600</v>
       </c>
       <c r="G72" s="3">
-        <v>-186100</v>
+        <v>-194900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>230800</v>
+        <v>241700</v>
       </c>
       <c r="E76" s="3">
-        <v>-272000</v>
+        <v>-284900</v>
       </c>
       <c r="F76" s="3">
-        <v>-233700</v>
+        <v>-244800</v>
       </c>
       <c r="G76" s="3">
-        <v>-216600</v>
+        <v>-227000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-184300</v>
+        <v>-193000</v>
       </c>
       <c r="E81" s="3">
-        <v>-20900</v>
+        <v>-21900</v>
       </c>
       <c r="F81" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="G81" s="3">
-        <v>-77900</v>
+        <v>-81600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2711,13 +2711,13 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="E89" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="F89" s="3">
-        <v>-97900</v>
+        <v>-102600</v>
       </c>
       <c r="G89" s="3">
-        <v>-25700</v>
+        <v>-27000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22000</v>
+        <v>-23100</v>
       </c>
       <c r="E94" s="3">
-        <v>-50800</v>
+        <v>-53200</v>
       </c>
       <c r="F94" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="G94" s="3">
-        <v>-28300</v>
+        <v>-29600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>86200</v>
+        <v>90300</v>
       </c>
       <c r="E100" s="3">
-        <v>-38900</v>
+        <v>-40800</v>
       </c>
       <c r="F100" s="3">
-        <v>96300</v>
+        <v>100900</v>
       </c>
       <c r="G100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78400</v>
+        <v>82100</v>
       </c>
       <c r="E102" s="3">
-        <v>-68200</v>
+        <v>-71400</v>
       </c>
       <c r="F102" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="G102" s="3">
-        <v>-47600</v>
+        <v>-49800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>547500</v>
+        <v>549900</v>
       </c>
       <c r="E8" s="3">
-        <v>347200</v>
+        <v>348700</v>
       </c>
       <c r="F8" s="3">
-        <v>273600</v>
+        <v>274800</v>
       </c>
       <c r="G8" s="3">
-        <v>224500</v>
+        <v>225500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>432400</v>
+        <v>434300</v>
       </c>
       <c r="E9" s="3">
-        <v>274700</v>
+        <v>275900</v>
       </c>
       <c r="F9" s="3">
-        <v>215500</v>
+        <v>216500</v>
       </c>
       <c r="G9" s="3">
-        <v>189700</v>
+        <v>190600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>115200</v>
+        <v>115700</v>
       </c>
       <c r="E10" s="3">
-        <v>72500</v>
+        <v>72800</v>
       </c>
       <c r="F10" s="3">
-        <v>58000</v>
+        <v>58300</v>
       </c>
       <c r="G10" s="3">
-        <v>34700</v>
+        <v>34900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>110300</v>
+        <v>110800</v>
       </c>
       <c r="E12" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="F12" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="G12" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>631600</v>
+        <v>634400</v>
       </c>
       <c r="E17" s="3">
-        <v>336600</v>
+        <v>338100</v>
       </c>
       <c r="F17" s="3">
-        <v>274300</v>
+        <v>275500</v>
       </c>
       <c r="G17" s="3">
-        <v>279800</v>
+        <v>281100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-84100</v>
+        <v>-84500</v>
       </c>
       <c r="E18" s="3">
         <v>10600</v>
@@ -989,7 +989,7 @@
         <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-55300</v>
+        <v>-55600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1027,7 +1027,7 @@
         <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76300</v>
+        <v>-76700</v>
       </c>
       <c r="E21" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="F21" s="3">
         <v>5100</v>
       </c>
       <c r="G21" s="3">
-        <v>-46600</v>
+        <v>-46800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77100</v>
+        <v>-77400</v>
       </c>
       <c r="E23" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="F23" s="3">
         <v>500</v>
       </c>
       <c r="G23" s="3">
-        <v>-50300</v>
+        <v>-50600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77600</v>
+        <v>-78000</v>
       </c>
       <c r="E26" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>-50500</v>
+        <v>-50700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193000</v>
+        <v>-193900</v>
       </c>
       <c r="E27" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="F27" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="G27" s="3">
-        <v>-81600</v>
+        <v>-82000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1387,7 +1387,7 @@
         <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193000</v>
+        <v>-193900</v>
       </c>
       <c r="E33" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="F33" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="G33" s="3">
-        <v>-81600</v>
+        <v>-82000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193000</v>
+        <v>-193900</v>
       </c>
       <c r="E35" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="F35" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="G35" s="3">
-        <v>-81600</v>
+        <v>-82000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167900</v>
+        <v>168600</v>
       </c>
       <c r="E41" s="3">
-        <v>67500</v>
+        <v>67800</v>
       </c>
       <c r="F41" s="3">
-        <v>87300</v>
+        <v>87600</v>
       </c>
       <c r="G41" s="3">
-        <v>155600</v>
+        <v>156300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="3">
         <v>10900</v>
       </c>
       <c r="F42" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G42" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>333100</v>
+        <v>334600</v>
       </c>
       <c r="E43" s="3">
-        <v>205800</v>
+        <v>206600</v>
       </c>
       <c r="F43" s="3">
-        <v>125900</v>
+        <v>126500</v>
       </c>
       <c r="G43" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64600</v>
+        <v>64900</v>
       </c>
       <c r="E45" s="3">
-        <v>85400</v>
+        <v>85800</v>
       </c>
       <c r="F45" s="3">
-        <v>195000</v>
+        <v>195800</v>
       </c>
       <c r="G45" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>567400</v>
+        <v>569900</v>
       </c>
       <c r="E46" s="3">
-        <v>369500</v>
+        <v>371100</v>
       </c>
       <c r="F46" s="3">
-        <v>413100</v>
+        <v>414900</v>
       </c>
       <c r="G46" s="3">
-        <v>266200</v>
+        <v>267400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94200</v>
+        <v>94600</v>
       </c>
       <c r="E47" s="3">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="F47" s="3">
         <v>14400</v>
       </c>
       <c r="G47" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>665100</v>
+        <v>668000</v>
       </c>
       <c r="E54" s="3">
-        <v>438000</v>
+        <v>439900</v>
       </c>
       <c r="F54" s="3">
-        <v>432600</v>
+        <v>434500</v>
       </c>
       <c r="G54" s="3">
-        <v>286200</v>
+        <v>287500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>288700</v>
+        <v>289900</v>
       </c>
       <c r="E57" s="3">
-        <v>171600</v>
+        <v>172400</v>
       </c>
       <c r="F57" s="3">
-        <v>90300</v>
+        <v>90700</v>
       </c>
       <c r="G57" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>74500</v>
+        <v>74900</v>
       </c>
       <c r="E58" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="F58" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58300</v>
+        <v>58600</v>
       </c>
       <c r="E59" s="3">
-        <v>71100</v>
+        <v>71400</v>
       </c>
       <c r="F59" s="3">
-        <v>126200</v>
+        <v>126700</v>
       </c>
       <c r="G59" s="3">
-        <v>126800</v>
+        <v>127300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>421500</v>
+        <v>423400</v>
       </c>
       <c r="E60" s="3">
-        <v>302800</v>
+        <v>304200</v>
       </c>
       <c r="F60" s="3">
-        <v>317300</v>
+        <v>318700</v>
       </c>
       <c r="G60" s="3">
-        <v>165600</v>
+        <v>166300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>423400</v>
+        <v>425200</v>
       </c>
       <c r="E66" s="3">
-        <v>304800</v>
+        <v>306100</v>
       </c>
       <c r="F66" s="3">
-        <v>318000</v>
+        <v>319400</v>
       </c>
       <c r="G66" s="3">
-        <v>165800</v>
+        <v>166500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>418100</v>
+        <v>419900</v>
       </c>
       <c r="F70" s="3">
-        <v>359400</v>
+        <v>361000</v>
       </c>
       <c r="G70" s="3">
-        <v>347400</v>
+        <v>348900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-444500</v>
+        <v>-446500</v>
       </c>
       <c r="E72" s="3">
-        <v>-251500</v>
+        <v>-252600</v>
       </c>
       <c r="F72" s="3">
-        <v>-229600</v>
+        <v>-230600</v>
       </c>
       <c r="G72" s="3">
-        <v>-194900</v>
+        <v>-195800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>241700</v>
+        <v>242800</v>
       </c>
       <c r="E76" s="3">
-        <v>-284900</v>
+        <v>-286100</v>
       </c>
       <c r="F76" s="3">
-        <v>-244800</v>
+        <v>-245900</v>
       </c>
       <c r="G76" s="3">
-        <v>-227000</v>
+        <v>-228000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193000</v>
+        <v>-193900</v>
       </c>
       <c r="E81" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="F81" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="G81" s="3">
-        <v>-81600</v>
+        <v>-82000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2714,10 +2714,10 @@
         <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="E89" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="F89" s="3">
-        <v>-102600</v>
+        <v>-103000</v>
       </c>
       <c r="G89" s="3">
-        <v>-27000</v>
+        <v>-27100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="E94" s="3">
-        <v>-53200</v>
+        <v>-53500</v>
       </c>
       <c r="F94" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="G94" s="3">
-        <v>-29600</v>
+        <v>-29800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>90300</v>
+        <v>90700</v>
       </c>
       <c r="E100" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="F100" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>82100</v>
+        <v>82400</v>
       </c>
       <c r="E102" s="3">
-        <v>-71400</v>
+        <v>-71700</v>
       </c>
       <c r="F102" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="G102" s="3">
-        <v>-49800</v>
+        <v>-50000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>DUO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>549900</v>
+        <v>382400</v>
       </c>
       <c r="E8" s="3">
-        <v>348700</v>
+        <v>561500</v>
       </c>
       <c r="F8" s="3">
-        <v>274800</v>
+        <v>356000</v>
       </c>
       <c r="G8" s="3">
-        <v>225500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>280600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>230200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>434300</v>
+        <v>317800</v>
       </c>
       <c r="E9" s="3">
-        <v>275900</v>
+        <v>443400</v>
       </c>
       <c r="F9" s="3">
-        <v>216500</v>
+        <v>281700</v>
       </c>
       <c r="G9" s="3">
-        <v>190600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>221100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>194600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>115700</v>
+        <v>64700</v>
       </c>
       <c r="E10" s="3">
-        <v>72800</v>
+        <v>118100</v>
       </c>
       <c r="F10" s="3">
-        <v>58300</v>
+        <v>74400</v>
       </c>
       <c r="G10" s="3">
-        <v>34900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>59500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>110800</v>
+        <v>47000</v>
       </c>
       <c r="E12" s="3">
-        <v>31000</v>
+        <v>113100</v>
       </c>
       <c r="F12" s="3">
-        <v>29300</v>
+        <v>31700</v>
       </c>
       <c r="G12" s="3">
-        <v>27900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>28500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,17 +888,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -899,12 +918,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>634400</v>
+        <v>417700</v>
       </c>
       <c r="E17" s="3">
-        <v>338100</v>
+        <v>647800</v>
       </c>
       <c r="F17" s="3">
-        <v>275500</v>
+        <v>345200</v>
       </c>
       <c r="G17" s="3">
-        <v>281100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>281300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>287000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-84500</v>
+        <v>-35300</v>
       </c>
       <c r="E18" s="3">
-        <v>10600</v>
+        <v>-86200</v>
       </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>10800</v>
       </c>
       <c r="G18" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-56800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>6000</v>
+        <v>7200</v>
       </c>
       <c r="F20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>5100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76700</v>
+        <v>-31700</v>
       </c>
       <c r="E21" s="3">
-        <v>18800</v>
+        <v>-78300</v>
       </c>
       <c r="F21" s="3">
-        <v>5100</v>
+        <v>19100</v>
       </c>
       <c r="G21" s="3">
-        <v>-46800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-47800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77400</v>
+        <v>-32200</v>
       </c>
       <c r="E23" s="3">
-        <v>16600</v>
+        <v>-79000</v>
       </c>
       <c r="F23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-51600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,27 +1179,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-78000</v>
+        <v>-34500</v>
       </c>
       <c r="E26" s="3">
-        <v>15900</v>
+        <v>-79600</v>
       </c>
       <c r="F26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-51800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193900</v>
+        <v>-34400</v>
       </c>
       <c r="E27" s="3">
-        <v>-22000</v>
+        <v>-198000</v>
       </c>
       <c r="F27" s="3">
-        <v>-34800</v>
+        <v>-22500</v>
       </c>
       <c r="G27" s="3">
-        <v>-82000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-83700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-6000</v>
+        <v>-7200</v>
       </c>
       <c r="F32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-5100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193900</v>
+        <v>-34400</v>
       </c>
       <c r="E33" s="3">
-        <v>-22000</v>
+        <v>-198000</v>
       </c>
       <c r="F33" s="3">
-        <v>-34800</v>
+        <v>-22500</v>
       </c>
       <c r="G33" s="3">
-        <v>-82000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-83700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193900</v>
+        <v>-34400</v>
       </c>
       <c r="E35" s="3">
-        <v>-22000</v>
+        <v>-198000</v>
       </c>
       <c r="F35" s="3">
-        <v>-34800</v>
+        <v>-22500</v>
       </c>
       <c r="G35" s="3">
-        <v>-82000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-83700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168600</v>
+        <v>131600</v>
       </c>
       <c r="E41" s="3">
-        <v>67800</v>
+        <v>172200</v>
       </c>
       <c r="F41" s="3">
-        <v>87600</v>
+        <v>69200</v>
       </c>
       <c r="G41" s="3">
-        <v>156300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>89500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>159600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1800</v>
       </c>
-      <c r="E42" s="3">
-        <v>10900</v>
-      </c>
       <c r="F42" s="3">
-        <v>5000</v>
+        <v>11200</v>
       </c>
       <c r="G42" s="3">
-        <v>44500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>334600</v>
+        <v>351400</v>
       </c>
       <c r="E43" s="3">
-        <v>206600</v>
+        <v>341700</v>
       </c>
       <c r="F43" s="3">
-        <v>126500</v>
+        <v>211000</v>
       </c>
       <c r="G43" s="3">
-        <v>29700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>129100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>30300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64900</v>
+        <v>43500</v>
       </c>
       <c r="E45" s="3">
-        <v>85800</v>
+        <v>66300</v>
       </c>
       <c r="F45" s="3">
-        <v>195800</v>
+        <v>87600</v>
       </c>
       <c r="G45" s="3">
-        <v>36900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>200000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>37700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>569900</v>
+        <v>542200</v>
       </c>
       <c r="E46" s="3">
-        <v>371100</v>
+        <v>581900</v>
       </c>
       <c r="F46" s="3">
-        <v>414900</v>
+        <v>379000</v>
       </c>
       <c r="G46" s="3">
-        <v>267400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>423700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>273000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94600</v>
+        <v>79300</v>
       </c>
       <c r="E47" s="3">
-        <v>61400</v>
+        <v>96600</v>
       </c>
       <c r="F47" s="3">
-        <v>14400</v>
+        <v>62700</v>
       </c>
       <c r="G47" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
-        <v>3400</v>
-      </c>
       <c r="G48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,39 +1907,45 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>4900</v>
+        <v>2300</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>668000</v>
+        <v>631500</v>
       </c>
       <c r="E54" s="3">
-        <v>439900</v>
+        <v>682100</v>
       </c>
       <c r="F54" s="3">
-        <v>434500</v>
+        <v>449200</v>
       </c>
       <c r="G54" s="3">
-        <v>287500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>443700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>293600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>289900</v>
+        <v>280200</v>
       </c>
       <c r="E57" s="3">
-        <v>172400</v>
+        <v>296000</v>
       </c>
       <c r="F57" s="3">
-        <v>90700</v>
+        <v>176000</v>
       </c>
       <c r="G57" s="3">
-        <v>39000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>92600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>39800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>74900</v>
+        <v>69200</v>
       </c>
       <c r="E58" s="3">
-        <v>60300</v>
+        <v>76400</v>
       </c>
       <c r="F58" s="3">
-        <v>101300</v>
+        <v>61600</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>103500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58600</v>
+        <v>49600</v>
       </c>
       <c r="E59" s="3">
-        <v>71400</v>
+        <v>59800</v>
       </c>
       <c r="F59" s="3">
-        <v>126700</v>
+        <v>72900</v>
       </c>
       <c r="G59" s="3">
-        <v>127300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>129400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>130000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>423400</v>
+        <v>399100</v>
       </c>
       <c r="E60" s="3">
-        <v>304200</v>
+        <v>432300</v>
       </c>
       <c r="F60" s="3">
-        <v>318700</v>
+        <v>310600</v>
       </c>
       <c r="G60" s="3">
-        <v>166300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>325400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>169800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,27 +2300,30 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
         <v>1900</v>
       </c>
       <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>425200</v>
+        <v>406300</v>
       </c>
       <c r="E66" s="3">
-        <v>306100</v>
+        <v>434200</v>
       </c>
       <c r="F66" s="3">
-        <v>319400</v>
+        <v>312600</v>
       </c>
       <c r="G66" s="3">
-        <v>166500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>326100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>170100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>419900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>361000</v>
+        <v>428800</v>
       </c>
       <c r="G70" s="3">
-        <v>348900</v>
+        <v>368600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>356300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-446500</v>
+        <v>-490300</v>
       </c>
       <c r="E72" s="3">
-        <v>-252600</v>
+        <v>-455900</v>
       </c>
       <c r="F72" s="3">
-        <v>-230600</v>
+        <v>-257900</v>
       </c>
       <c r="G72" s="3">
-        <v>-195800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-235400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-199900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>242800</v>
+        <v>225200</v>
       </c>
       <c r="E76" s="3">
-        <v>-286100</v>
+        <v>247900</v>
       </c>
       <c r="F76" s="3">
-        <v>-245900</v>
+        <v>-292200</v>
       </c>
       <c r="G76" s="3">
-        <v>-228000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-251100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-232800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193900</v>
+        <v>-34400</v>
       </c>
       <c r="E81" s="3">
-        <v>-22000</v>
+        <v>-198000</v>
       </c>
       <c r="F81" s="3">
-        <v>-34800</v>
+        <v>-22500</v>
       </c>
       <c r="G81" s="3">
-        <v>-82000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-83700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18100</v>
+        <v>-50700</v>
       </c>
       <c r="E89" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="F89" s="3">
-        <v>-103000</v>
+        <v>20200</v>
       </c>
       <c r="G89" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-105200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-27700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-3800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23200</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-53500</v>
+        <v>-23700</v>
       </c>
       <c r="F94" s="3">
-        <v>32400</v>
+        <v>-54600</v>
       </c>
       <c r="G94" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>33100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-30400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3421,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>90700</v>
+        <v>-7300</v>
       </c>
       <c r="E100" s="3">
-        <v>-41000</v>
+        <v>92600</v>
       </c>
       <c r="F100" s="3">
-        <v>101300</v>
+        <v>-41800</v>
       </c>
       <c r="G100" s="3">
+        <v>103500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>-6100</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>82400</v>
+        <v>-62100</v>
       </c>
       <c r="E102" s="3">
-        <v>-71700</v>
+        <v>84200</v>
       </c>
       <c r="F102" s="3">
-        <v>24600</v>
+        <v>-73200</v>
       </c>
       <c r="G102" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-51100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>382400</v>
+        <v>377400</v>
       </c>
       <c r="E8" s="3">
-        <v>561500</v>
+        <v>554200</v>
       </c>
       <c r="F8" s="3">
-        <v>356000</v>
+        <v>351400</v>
       </c>
       <c r="G8" s="3">
-        <v>280600</v>
+        <v>276900</v>
       </c>
       <c r="H8" s="3">
-        <v>230200</v>
+        <v>227200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>317800</v>
+        <v>313600</v>
       </c>
       <c r="E9" s="3">
-        <v>443400</v>
+        <v>437700</v>
       </c>
       <c r="F9" s="3">
-        <v>281700</v>
+        <v>278000</v>
       </c>
       <c r="G9" s="3">
-        <v>221100</v>
+        <v>218200</v>
       </c>
       <c r="H9" s="3">
-        <v>194600</v>
+        <v>192100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>64700</v>
+        <v>63800</v>
       </c>
       <c r="E10" s="3">
-        <v>118100</v>
+        <v>116600</v>
       </c>
       <c r="F10" s="3">
-        <v>74400</v>
+        <v>73400</v>
       </c>
       <c r="G10" s="3">
-        <v>59500</v>
+        <v>58800</v>
       </c>
       <c r="H10" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>47000</v>
+        <v>46400</v>
       </c>
       <c r="E12" s="3">
-        <v>113100</v>
+        <v>111600</v>
       </c>
       <c r="F12" s="3">
-        <v>31700</v>
+        <v>31200</v>
       </c>
       <c r="G12" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="H12" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>417700</v>
+        <v>412300</v>
       </c>
       <c r="E17" s="3">
-        <v>647800</v>
+        <v>639400</v>
       </c>
       <c r="F17" s="3">
-        <v>345200</v>
+        <v>340700</v>
       </c>
       <c r="G17" s="3">
-        <v>281300</v>
+        <v>277700</v>
       </c>
       <c r="H17" s="3">
-        <v>287000</v>
+        <v>283300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35300</v>
+        <v>-34800</v>
       </c>
       <c r="E18" s="3">
-        <v>-86200</v>
+        <v>-85100</v>
       </c>
       <c r="F18" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H18" s="3">
-        <v>-56800</v>
+        <v>-56000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1060,10 +1060,10 @@
         <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31700</v>
+        <v>-31200</v>
       </c>
       <c r="E21" s="3">
-        <v>-78300</v>
+        <v>-77300</v>
       </c>
       <c r="F21" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G21" s="3">
         <v>5200</v>
       </c>
       <c r="H21" s="3">
-        <v>-47800</v>
+        <v>-47200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32200</v>
+        <v>-31800</v>
       </c>
       <c r="E23" s="3">
-        <v>-79000</v>
+        <v>-78000</v>
       </c>
       <c r="F23" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G23" s="3">
         <v>500</v>
       </c>
       <c r="H23" s="3">
-        <v>-51600</v>
+        <v>-51000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34500</v>
+        <v>-34100</v>
       </c>
       <c r="E26" s="3">
-        <v>-79600</v>
+        <v>-78600</v>
       </c>
       <c r="F26" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>-51800</v>
+        <v>-51100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34400</v>
+        <v>-33900</v>
       </c>
       <c r="E27" s="3">
-        <v>-198000</v>
+        <v>-195400</v>
       </c>
       <c r="F27" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="G27" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="H27" s="3">
-        <v>-83700</v>
+        <v>-82600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1456,10 +1456,10 @@
         <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34400</v>
+        <v>-33900</v>
       </c>
       <c r="E33" s="3">
-        <v>-198000</v>
+        <v>-195400</v>
       </c>
       <c r="F33" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="G33" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="H33" s="3">
-        <v>-83700</v>
+        <v>-82600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34400</v>
+        <v>-33900</v>
       </c>
       <c r="E35" s="3">
-        <v>-198000</v>
+        <v>-195400</v>
       </c>
       <c r="F35" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="G35" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="H35" s="3">
-        <v>-83700</v>
+        <v>-82600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131600</v>
+        <v>129900</v>
       </c>
       <c r="E41" s="3">
-        <v>172200</v>
+        <v>170000</v>
       </c>
       <c r="F41" s="3">
-        <v>69200</v>
+        <v>68300</v>
       </c>
       <c r="G41" s="3">
-        <v>89500</v>
+        <v>88300</v>
       </c>
       <c r="H41" s="3">
-        <v>159600</v>
+        <v>157500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E42" s="3">
         <v>1800</v>
       </c>
       <c r="F42" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="G42" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="3">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>351400</v>
+        <v>346800</v>
       </c>
       <c r="E43" s="3">
-        <v>341700</v>
+        <v>337200</v>
       </c>
       <c r="F43" s="3">
-        <v>211000</v>
+        <v>208300</v>
       </c>
       <c r="G43" s="3">
-        <v>129100</v>
+        <v>127500</v>
       </c>
       <c r="H43" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43500</v>
+        <v>42900</v>
       </c>
       <c r="E45" s="3">
-        <v>66300</v>
+        <v>65400</v>
       </c>
       <c r="F45" s="3">
-        <v>87600</v>
+        <v>86500</v>
       </c>
       <c r="G45" s="3">
-        <v>200000</v>
+        <v>197400</v>
       </c>
       <c r="H45" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>542200</v>
+        <v>535100</v>
       </c>
       <c r="E46" s="3">
-        <v>581900</v>
+        <v>574300</v>
       </c>
       <c r="F46" s="3">
-        <v>379000</v>
+        <v>374100</v>
       </c>
       <c r="G46" s="3">
-        <v>423700</v>
+        <v>418200</v>
       </c>
       <c r="H46" s="3">
-        <v>273000</v>
+        <v>269500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="E47" s="3">
-        <v>96600</v>
+        <v>95400</v>
       </c>
       <c r="F47" s="3">
-        <v>62700</v>
+        <v>61900</v>
       </c>
       <c r="G47" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="H47" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
@@ -1893,10 +1893,10 @@
         <v>2400</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H48" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2019,16 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F52" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>631500</v>
+        <v>623300</v>
       </c>
       <c r="E54" s="3">
-        <v>682100</v>
+        <v>673200</v>
       </c>
       <c r="F54" s="3">
-        <v>449200</v>
+        <v>443400</v>
       </c>
       <c r="G54" s="3">
-        <v>443700</v>
+        <v>437900</v>
       </c>
       <c r="H54" s="3">
-        <v>293600</v>
+        <v>289700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>280200</v>
+        <v>276600</v>
       </c>
       <c r="E57" s="3">
-        <v>296000</v>
+        <v>292200</v>
       </c>
       <c r="F57" s="3">
-        <v>176000</v>
+        <v>173700</v>
       </c>
       <c r="G57" s="3">
-        <v>92600</v>
+        <v>91400</v>
       </c>
       <c r="H57" s="3">
-        <v>39800</v>
+        <v>39300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69200</v>
+        <v>68300</v>
       </c>
       <c r="E58" s="3">
-        <v>76400</v>
+        <v>75500</v>
       </c>
       <c r="F58" s="3">
-        <v>61600</v>
+        <v>60800</v>
       </c>
       <c r="G58" s="3">
-        <v>103500</v>
+        <v>102100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49600</v>
+        <v>49000</v>
       </c>
       <c r="E59" s="3">
-        <v>59800</v>
+        <v>59100</v>
       </c>
       <c r="F59" s="3">
-        <v>72900</v>
+        <v>72000</v>
       </c>
       <c r="G59" s="3">
-        <v>129400</v>
+        <v>127700</v>
       </c>
       <c r="H59" s="3">
-        <v>130000</v>
+        <v>128300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>399100</v>
+        <v>393900</v>
       </c>
       <c r="E60" s="3">
-        <v>432300</v>
+        <v>426700</v>
       </c>
       <c r="F60" s="3">
-        <v>310600</v>
+        <v>306500</v>
       </c>
       <c r="G60" s="3">
-        <v>325400</v>
+        <v>321200</v>
       </c>
       <c r="H60" s="3">
-        <v>169800</v>
+        <v>167600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2313,10 +2313,10 @@
         <v>3700</v>
       </c>
       <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>406300</v>
+        <v>401000</v>
       </c>
       <c r="E66" s="3">
-        <v>434200</v>
+        <v>428500</v>
       </c>
       <c r="F66" s="3">
-        <v>312600</v>
+        <v>308500</v>
       </c>
       <c r="G66" s="3">
-        <v>326100</v>
+        <v>321900</v>
       </c>
       <c r="H66" s="3">
-        <v>170100</v>
+        <v>167800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>428800</v>
+        <v>423200</v>
       </c>
       <c r="G70" s="3">
-        <v>368600</v>
+        <v>363800</v>
       </c>
       <c r="H70" s="3">
-        <v>356300</v>
+        <v>351600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-490300</v>
+        <v>-483900</v>
       </c>
       <c r="E72" s="3">
-        <v>-455900</v>
+        <v>-450000</v>
       </c>
       <c r="F72" s="3">
-        <v>-257900</v>
+        <v>-254600</v>
       </c>
       <c r="G72" s="3">
-        <v>-235400</v>
+        <v>-232400</v>
       </c>
       <c r="H72" s="3">
-        <v>-199900</v>
+        <v>-197300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>225200</v>
+        <v>222300</v>
       </c>
       <c r="E76" s="3">
-        <v>247900</v>
+        <v>244700</v>
       </c>
       <c r="F76" s="3">
-        <v>-292200</v>
+        <v>-288300</v>
       </c>
       <c r="G76" s="3">
-        <v>-251100</v>
+        <v>-247800</v>
       </c>
       <c r="H76" s="3">
-        <v>-232800</v>
+        <v>-229700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34400</v>
+        <v>-33900</v>
       </c>
       <c r="E81" s="3">
-        <v>-198000</v>
+        <v>-195400</v>
       </c>
       <c r="F81" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="G81" s="3">
-        <v>-35500</v>
+        <v>-35100</v>
       </c>
       <c r="H81" s="3">
-        <v>-83700</v>
+        <v>-82600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>2200</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50700</v>
+        <v>-50000</v>
       </c>
       <c r="E89" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="F89" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="G89" s="3">
-        <v>-105200</v>
+        <v>-103800</v>
       </c>
       <c r="H89" s="3">
-        <v>-27700</v>
+        <v>-27300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3254,16 +3254,16 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-23700</v>
+        <v>-23400</v>
       </c>
       <c r="F94" s="3">
-        <v>-54600</v>
+        <v>-53900</v>
       </c>
       <c r="G94" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="H94" s="3">
-        <v>-30400</v>
+        <v>-30000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="E100" s="3">
-        <v>92600</v>
+        <v>91400</v>
       </c>
       <c r="F100" s="3">
-        <v>-41800</v>
+        <v>-41300</v>
       </c>
       <c r="G100" s="3">
-        <v>103500</v>
+        <v>102100</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
         <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G101" s="3">
         <v>-6200</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62100</v>
+        <v>-61300</v>
       </c>
       <c r="E102" s="3">
-        <v>84200</v>
+        <v>83100</v>
       </c>
       <c r="F102" s="3">
-        <v>-73200</v>
+        <v>-72300</v>
       </c>
       <c r="G102" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="H102" s="3">
-        <v>-51100</v>
+        <v>-50400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>377400</v>
+        <v>383800</v>
       </c>
       <c r="E8" s="3">
-        <v>554200</v>
+        <v>563500</v>
       </c>
       <c r="F8" s="3">
-        <v>351400</v>
+        <v>357300</v>
       </c>
       <c r="G8" s="3">
-        <v>276900</v>
+        <v>281600</v>
       </c>
       <c r="H8" s="3">
-        <v>227200</v>
+        <v>231000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>313600</v>
+        <v>318900</v>
       </c>
       <c r="E9" s="3">
-        <v>437700</v>
+        <v>445000</v>
       </c>
       <c r="F9" s="3">
-        <v>278000</v>
+        <v>282700</v>
       </c>
       <c r="G9" s="3">
-        <v>218200</v>
+        <v>221800</v>
       </c>
       <c r="H9" s="3">
-        <v>192100</v>
+        <v>195300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>63800</v>
+        <v>64900</v>
       </c>
       <c r="E10" s="3">
-        <v>116600</v>
+        <v>118500</v>
       </c>
       <c r="F10" s="3">
-        <v>73400</v>
+        <v>74600</v>
       </c>
       <c r="G10" s="3">
-        <v>58800</v>
+        <v>59700</v>
       </c>
       <c r="H10" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="E12" s="3">
-        <v>111600</v>
+        <v>113500</v>
       </c>
       <c r="F12" s="3">
-        <v>31200</v>
+        <v>31800</v>
       </c>
       <c r="G12" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="H12" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>412300</v>
+        <v>419200</v>
       </c>
       <c r="E17" s="3">
-        <v>639400</v>
+        <v>650100</v>
       </c>
       <c r="F17" s="3">
-        <v>340700</v>
+        <v>346400</v>
       </c>
       <c r="G17" s="3">
-        <v>277700</v>
+        <v>282300</v>
       </c>
       <c r="H17" s="3">
-        <v>283300</v>
+        <v>288000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34800</v>
+        <v>-35400</v>
       </c>
       <c r="E18" s="3">
-        <v>-85100</v>
+        <v>-86500</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-56000</v>
+        <v>-57000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1060,16 +1060,16 @@
         <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31200</v>
+        <v>-31800</v>
       </c>
       <c r="E21" s="3">
-        <v>-77300</v>
+        <v>-78600</v>
       </c>
       <c r="F21" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="3">
         <v>5200</v>
       </c>
       <c r="H21" s="3">
-        <v>-47200</v>
+        <v>-48000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31800</v>
+        <v>-32400</v>
       </c>
       <c r="E23" s="3">
-        <v>-78000</v>
+        <v>-79300</v>
       </c>
       <c r="F23" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="G23" s="3">
         <v>500</v>
       </c>
       <c r="H23" s="3">
-        <v>-51000</v>
+        <v>-51800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="E26" s="3">
-        <v>-78600</v>
+        <v>-79900</v>
       </c>
       <c r="F26" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>-51100</v>
+        <v>-52000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="E27" s="3">
-        <v>-195400</v>
+        <v>-198700</v>
       </c>
       <c r="F27" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G27" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="H27" s="3">
-        <v>-82600</v>
+        <v>-84000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1456,16 +1456,16 @@
         <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="E33" s="3">
-        <v>-195400</v>
+        <v>-198700</v>
       </c>
       <c r="F33" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="H33" s="3">
-        <v>-82600</v>
+        <v>-84000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="E35" s="3">
-        <v>-195400</v>
+        <v>-198700</v>
       </c>
       <c r="F35" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="H35" s="3">
-        <v>-82600</v>
+        <v>-84000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129900</v>
+        <v>132100</v>
       </c>
       <c r="E41" s="3">
-        <v>170000</v>
+        <v>172800</v>
       </c>
       <c r="F41" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="G41" s="3">
-        <v>88300</v>
+        <v>89800</v>
       </c>
       <c r="H41" s="3">
-        <v>157500</v>
+        <v>160100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="E42" s="3">
         <v>1800</v>
       </c>
       <c r="F42" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H42" s="3">
-        <v>44900</v>
+        <v>45600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>346800</v>
+        <v>352600</v>
       </c>
       <c r="E43" s="3">
-        <v>337200</v>
+        <v>342900</v>
       </c>
       <c r="F43" s="3">
-        <v>208300</v>
+        <v>211800</v>
       </c>
       <c r="G43" s="3">
-        <v>127500</v>
+        <v>129600</v>
       </c>
       <c r="H43" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42900</v>
+        <v>43600</v>
       </c>
       <c r="E45" s="3">
-        <v>65400</v>
+        <v>66500</v>
       </c>
       <c r="F45" s="3">
-        <v>86500</v>
+        <v>87900</v>
       </c>
       <c r="G45" s="3">
-        <v>197400</v>
+        <v>200700</v>
       </c>
       <c r="H45" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>535100</v>
+        <v>544100</v>
       </c>
       <c r="E46" s="3">
-        <v>574300</v>
+        <v>584000</v>
       </c>
       <c r="F46" s="3">
-        <v>374100</v>
+        <v>380300</v>
       </c>
       <c r="G46" s="3">
-        <v>418200</v>
+        <v>425200</v>
       </c>
       <c r="H46" s="3">
-        <v>269500</v>
+        <v>274000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E47" s="3">
-        <v>95400</v>
+        <v>97000</v>
       </c>
       <c r="F47" s="3">
-        <v>61900</v>
+        <v>63000</v>
       </c>
       <c r="G47" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="H47" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
@@ -1893,10 +1893,10 @@
         <v>2400</v>
       </c>
       <c r="G48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2019,16 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F52" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>623300</v>
+        <v>633700</v>
       </c>
       <c r="E54" s="3">
-        <v>673200</v>
+        <v>684500</v>
       </c>
       <c r="F54" s="3">
-        <v>443400</v>
+        <v>450800</v>
       </c>
       <c r="G54" s="3">
-        <v>437900</v>
+        <v>445200</v>
       </c>
       <c r="H54" s="3">
-        <v>289700</v>
+        <v>294600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>276600</v>
+        <v>281200</v>
       </c>
       <c r="E57" s="3">
-        <v>292200</v>
+        <v>297100</v>
       </c>
       <c r="F57" s="3">
-        <v>173700</v>
+        <v>176600</v>
       </c>
       <c r="G57" s="3">
-        <v>91400</v>
+        <v>92900</v>
       </c>
       <c r="H57" s="3">
-        <v>39300</v>
+        <v>39900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="E58" s="3">
-        <v>75500</v>
+        <v>76700</v>
       </c>
       <c r="F58" s="3">
-        <v>60800</v>
+        <v>61800</v>
       </c>
       <c r="G58" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="E59" s="3">
-        <v>59100</v>
+        <v>60000</v>
       </c>
       <c r="F59" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="G59" s="3">
-        <v>127700</v>
+        <v>129900</v>
       </c>
       <c r="H59" s="3">
-        <v>128300</v>
+        <v>130500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>393900</v>
+        <v>400500</v>
       </c>
       <c r="E60" s="3">
-        <v>426700</v>
+        <v>433900</v>
       </c>
       <c r="F60" s="3">
-        <v>306500</v>
+        <v>311700</v>
       </c>
       <c r="G60" s="3">
-        <v>321200</v>
+        <v>326600</v>
       </c>
       <c r="H60" s="3">
-        <v>167600</v>
+        <v>170400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>401000</v>
+        <v>407800</v>
       </c>
       <c r="E66" s="3">
-        <v>428500</v>
+        <v>435700</v>
       </c>
       <c r="F66" s="3">
-        <v>308500</v>
+        <v>313700</v>
       </c>
       <c r="G66" s="3">
-        <v>321900</v>
+        <v>327300</v>
       </c>
       <c r="H66" s="3">
-        <v>167800</v>
+        <v>170700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>423200</v>
+        <v>430300</v>
       </c>
       <c r="G70" s="3">
-        <v>363800</v>
+        <v>369900</v>
       </c>
       <c r="H70" s="3">
-        <v>351600</v>
+        <v>357500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-483900</v>
+        <v>-492000</v>
       </c>
       <c r="E72" s="3">
-        <v>-450000</v>
+        <v>-457500</v>
       </c>
       <c r="F72" s="3">
-        <v>-254600</v>
+        <v>-258800</v>
       </c>
       <c r="G72" s="3">
-        <v>-232400</v>
+        <v>-236300</v>
       </c>
       <c r="H72" s="3">
-        <v>-197300</v>
+        <v>-200600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>222300</v>
+        <v>226000</v>
       </c>
       <c r="E76" s="3">
-        <v>244700</v>
+        <v>248800</v>
       </c>
       <c r="F76" s="3">
-        <v>-288300</v>
+        <v>-293200</v>
       </c>
       <c r="G76" s="3">
-        <v>-247800</v>
+        <v>-251900</v>
       </c>
       <c r="H76" s="3">
-        <v>-229700</v>
+        <v>-233600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="E81" s="3">
-        <v>-195400</v>
+        <v>-198700</v>
       </c>
       <c r="F81" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="H81" s="3">
-        <v>-82600</v>
+        <v>-84000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2909,16 +2909,16 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>2200</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50000</v>
+        <v>-50900</v>
       </c>
       <c r="E89" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="F89" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G89" s="3">
-        <v>-103800</v>
+        <v>-105600</v>
       </c>
       <c r="H89" s="3">
-        <v>-27300</v>
+        <v>-27800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3254,16 +3254,16 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-23400</v>
+        <v>-23800</v>
       </c>
       <c r="F94" s="3">
-        <v>-53900</v>
+        <v>-54800</v>
       </c>
       <c r="G94" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="H94" s="3">
-        <v>-30000</v>
+        <v>-30500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="E100" s="3">
-        <v>91400</v>
+        <v>92900</v>
       </c>
       <c r="F100" s="3">
-        <v>-41300</v>
+        <v>-42000</v>
       </c>
       <c r="G100" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
         <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="H101" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61300</v>
+        <v>-62300</v>
       </c>
       <c r="E102" s="3">
-        <v>83100</v>
+        <v>84500</v>
       </c>
       <c r="F102" s="3">
-        <v>-72300</v>
+        <v>-73500</v>
       </c>
       <c r="G102" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="H102" s="3">
-        <v>-50400</v>
+        <v>-51300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>383800</v>
+        <v>386700</v>
       </c>
       <c r="E8" s="3">
-        <v>563500</v>
+        <v>567800</v>
       </c>
       <c r="F8" s="3">
-        <v>357300</v>
+        <v>360000</v>
       </c>
       <c r="G8" s="3">
-        <v>281600</v>
+        <v>283700</v>
       </c>
       <c r="H8" s="3">
-        <v>231000</v>
+        <v>232800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>318900</v>
+        <v>321300</v>
       </c>
       <c r="E9" s="3">
-        <v>445000</v>
+        <v>448400</v>
       </c>
       <c r="F9" s="3">
-        <v>282700</v>
+        <v>284800</v>
       </c>
       <c r="G9" s="3">
-        <v>221800</v>
+        <v>223500</v>
       </c>
       <c r="H9" s="3">
-        <v>195300</v>
+        <v>196800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>64900</v>
+        <v>65400</v>
       </c>
       <c r="E10" s="3">
-        <v>118500</v>
+        <v>119400</v>
       </c>
       <c r="F10" s="3">
-        <v>74600</v>
+        <v>75200</v>
       </c>
       <c r="G10" s="3">
-        <v>59700</v>
+        <v>60200</v>
       </c>
       <c r="H10" s="3">
-        <v>35800</v>
+        <v>36000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>47200</v>
+        <v>47500</v>
       </c>
       <c r="E12" s="3">
-        <v>113500</v>
+        <v>114400</v>
       </c>
       <c r="F12" s="3">
-        <v>31800</v>
+        <v>32000</v>
       </c>
       <c r="G12" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="H12" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>419200</v>
+        <v>422400</v>
       </c>
       <c r="E17" s="3">
-        <v>650100</v>
+        <v>655000</v>
       </c>
       <c r="F17" s="3">
-        <v>346400</v>
+        <v>349100</v>
       </c>
       <c r="G17" s="3">
-        <v>282300</v>
+        <v>284500</v>
       </c>
       <c r="H17" s="3">
-        <v>288000</v>
+        <v>290200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35400</v>
+        <v>-35700</v>
       </c>
       <c r="E18" s="3">
-        <v>-86500</v>
+        <v>-87200</v>
       </c>
       <c r="F18" s="3">
         <v>10900</v>
@@ -1021,7 +1021,7 @@
         <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-57000</v>
+        <v>-57400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1060,10 +1060,10 @@
         <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31800</v>
+        <v>-32000</v>
       </c>
       <c r="E21" s="3">
-        <v>-78600</v>
+        <v>-79200</v>
       </c>
       <c r="F21" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="G21" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H21" s="3">
-        <v>-48000</v>
+        <v>-48300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32400</v>
+        <v>-32600</v>
       </c>
       <c r="E23" s="3">
-        <v>-79300</v>
+        <v>-79900</v>
       </c>
       <c r="F23" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G23" s="3">
         <v>500</v>
       </c>
       <c r="H23" s="3">
-        <v>-51800</v>
+        <v>-52200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34700</v>
+        <v>-34900</v>
       </c>
       <c r="E26" s="3">
-        <v>-79900</v>
+        <v>-80500</v>
       </c>
       <c r="F26" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>-52000</v>
+        <v>-52400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="E27" s="3">
-        <v>-198700</v>
+        <v>-200200</v>
       </c>
       <c r="F27" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="G27" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="H27" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1456,10 +1456,10 @@
         <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="E33" s="3">
-        <v>-198700</v>
+        <v>-200200</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="G33" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="H33" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="E35" s="3">
-        <v>-198700</v>
+        <v>-200200</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="G35" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="H35" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132100</v>
+        <v>133100</v>
       </c>
       <c r="E41" s="3">
-        <v>172800</v>
+        <v>174100</v>
       </c>
       <c r="F41" s="3">
-        <v>69400</v>
+        <v>70000</v>
       </c>
       <c r="G41" s="3">
-        <v>89800</v>
+        <v>90500</v>
       </c>
       <c r="H41" s="3">
-        <v>160100</v>
+        <v>161300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="E42" s="3">
         <v>1800</v>
       </c>
       <c r="F42" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="G42" s="3">
         <v>5100</v>
       </c>
       <c r="H42" s="3">
-        <v>45600</v>
+        <v>46000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>352600</v>
+        <v>355300</v>
       </c>
       <c r="E43" s="3">
-        <v>342900</v>
+        <v>345500</v>
       </c>
       <c r="F43" s="3">
-        <v>211800</v>
+        <v>213400</v>
       </c>
       <c r="G43" s="3">
-        <v>129600</v>
+        <v>130600</v>
       </c>
       <c r="H43" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="E45" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="F45" s="3">
-        <v>87900</v>
+        <v>88600</v>
       </c>
       <c r="G45" s="3">
-        <v>200700</v>
+        <v>202200</v>
       </c>
       <c r="H45" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>544100</v>
+        <v>548200</v>
       </c>
       <c r="E46" s="3">
-        <v>584000</v>
+        <v>588400</v>
       </c>
       <c r="F46" s="3">
-        <v>380300</v>
+        <v>383200</v>
       </c>
       <c r="G46" s="3">
-        <v>425200</v>
+        <v>428500</v>
       </c>
       <c r="H46" s="3">
-        <v>274000</v>
+        <v>276100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E47" s="3">
-        <v>97000</v>
+        <v>97700</v>
       </c>
       <c r="F47" s="3">
-        <v>63000</v>
+        <v>63400</v>
       </c>
       <c r="G47" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H47" s="3">
         <v>7700</v>
@@ -1896,7 +1896,7 @@
         <v>3500</v>
       </c>
       <c r="H48" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>633700</v>
+        <v>638600</v>
       </c>
       <c r="E54" s="3">
-        <v>684500</v>
+        <v>689700</v>
       </c>
       <c r="F54" s="3">
-        <v>450800</v>
+        <v>454200</v>
       </c>
       <c r="G54" s="3">
-        <v>445200</v>
+        <v>448700</v>
       </c>
       <c r="H54" s="3">
-        <v>294600</v>
+        <v>296800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>281200</v>
+        <v>283400</v>
       </c>
       <c r="E57" s="3">
-        <v>297100</v>
+        <v>299400</v>
       </c>
       <c r="F57" s="3">
-        <v>176600</v>
+        <v>178000</v>
       </c>
       <c r="G57" s="3">
-        <v>92900</v>
+        <v>93600</v>
       </c>
       <c r="H57" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69400</v>
+        <v>70000</v>
       </c>
       <c r="E58" s="3">
-        <v>76700</v>
+        <v>77300</v>
       </c>
       <c r="F58" s="3">
-        <v>61800</v>
+        <v>62300</v>
       </c>
       <c r="G58" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49800</v>
+        <v>50200</v>
       </c>
       <c r="E59" s="3">
-        <v>60000</v>
+        <v>60500</v>
       </c>
       <c r="F59" s="3">
-        <v>73200</v>
+        <v>73800</v>
       </c>
       <c r="G59" s="3">
-        <v>129900</v>
+        <v>130900</v>
       </c>
       <c r="H59" s="3">
-        <v>130500</v>
+        <v>131500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400500</v>
+        <v>403500</v>
       </c>
       <c r="E60" s="3">
-        <v>433900</v>
+        <v>437200</v>
       </c>
       <c r="F60" s="3">
-        <v>311700</v>
+        <v>314100</v>
       </c>
       <c r="G60" s="3">
-        <v>326600</v>
+        <v>329100</v>
       </c>
       <c r="H60" s="3">
-        <v>170400</v>
+        <v>171700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>407800</v>
+        <v>410900</v>
       </c>
       <c r="E66" s="3">
-        <v>435700</v>
+        <v>439100</v>
       </c>
       <c r="F66" s="3">
-        <v>313700</v>
+        <v>316100</v>
       </c>
       <c r="G66" s="3">
-        <v>327300</v>
+        <v>329800</v>
       </c>
       <c r="H66" s="3">
-        <v>170700</v>
+        <v>172000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>430300</v>
+        <v>433600</v>
       </c>
       <c r="G70" s="3">
-        <v>369900</v>
+        <v>372700</v>
       </c>
       <c r="H70" s="3">
-        <v>357500</v>
+        <v>360300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-492000</v>
+        <v>-495800</v>
       </c>
       <c r="E72" s="3">
-        <v>-457500</v>
+        <v>-461000</v>
       </c>
       <c r="F72" s="3">
-        <v>-258800</v>
+        <v>-260800</v>
       </c>
       <c r="G72" s="3">
-        <v>-236300</v>
+        <v>-238100</v>
       </c>
       <c r="H72" s="3">
-        <v>-200600</v>
+        <v>-202100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>226000</v>
+        <v>227700</v>
       </c>
       <c r="E76" s="3">
-        <v>248800</v>
+        <v>250700</v>
       </c>
       <c r="F76" s="3">
-        <v>-293200</v>
+        <v>-295400</v>
       </c>
       <c r="G76" s="3">
-        <v>-251900</v>
+        <v>-253800</v>
       </c>
       <c r="H76" s="3">
-        <v>-233600</v>
+        <v>-235400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34500</v>
+        <v>-34800</v>
       </c>
       <c r="E81" s="3">
-        <v>-198700</v>
+        <v>-200200</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="G81" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="H81" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50900</v>
+        <v>-51300</v>
       </c>
       <c r="E89" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F89" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="G89" s="3">
-        <v>-105600</v>
+        <v>-106400</v>
       </c>
       <c r="H89" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3164,7 +3164,7 @@
         <v>-700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3254,16 +3254,16 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="F94" s="3">
-        <v>-54800</v>
+        <v>-55200</v>
       </c>
       <c r="G94" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="H94" s="3">
-        <v>-30500</v>
+        <v>-30700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3434,13 +3434,13 @@
         <v>-7300</v>
       </c>
       <c r="E100" s="3">
-        <v>92900</v>
+        <v>93600</v>
       </c>
       <c r="F100" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="G100" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
         <v>-3200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62300</v>
+        <v>-62800</v>
       </c>
       <c r="E102" s="3">
-        <v>84500</v>
+        <v>85100</v>
       </c>
       <c r="F102" s="3">
-        <v>-73500</v>
+        <v>-74100</v>
       </c>
       <c r="G102" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="H102" s="3">
-        <v>-51300</v>
+        <v>-51700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>386700</v>
+        <v>138900</v>
       </c>
       <c r="E8" s="3">
-        <v>567800</v>
+        <v>361200</v>
       </c>
       <c r="F8" s="3">
-        <v>360000</v>
+        <v>530400</v>
       </c>
       <c r="G8" s="3">
-        <v>283700</v>
+        <v>336300</v>
       </c>
       <c r="H8" s="3">
-        <v>232800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>265000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>217500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>321300</v>
+        <v>123200</v>
       </c>
       <c r="E9" s="3">
-        <v>448400</v>
+        <v>300100</v>
       </c>
       <c r="F9" s="3">
-        <v>284800</v>
+        <v>418900</v>
       </c>
       <c r="G9" s="3">
-        <v>223500</v>
+        <v>266100</v>
       </c>
       <c r="H9" s="3">
-        <v>196800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>208800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>183800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65400</v>
+        <v>15700</v>
       </c>
       <c r="E10" s="3">
-        <v>119400</v>
+        <v>61100</v>
       </c>
       <c r="F10" s="3">
-        <v>75200</v>
+        <v>111600</v>
       </c>
       <c r="G10" s="3">
-        <v>60200</v>
+        <v>70200</v>
       </c>
       <c r="H10" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>56200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>33700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,28 +838,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>47500</v>
+        <v>24700</v>
       </c>
       <c r="E12" s="3">
-        <v>114400</v>
+        <v>44400</v>
       </c>
       <c r="F12" s="3">
-        <v>32000</v>
+        <v>106800</v>
       </c>
       <c r="G12" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="H12" s="3">
-        <v>28800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>28200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,20 +907,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -921,12 +940,15 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>422400</v>
+        <v>317700</v>
       </c>
       <c r="E17" s="3">
-        <v>655000</v>
+        <v>394500</v>
       </c>
       <c r="F17" s="3">
-        <v>349100</v>
+        <v>611900</v>
       </c>
       <c r="G17" s="3">
-        <v>284500</v>
+        <v>326100</v>
       </c>
       <c r="H17" s="3">
-        <v>290200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>265700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>271100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-35700</v>
+        <v>-178800</v>
       </c>
       <c r="E18" s="3">
-        <v>-87200</v>
+        <v>-33300</v>
       </c>
       <c r="F18" s="3">
-        <v>10900</v>
+        <v>-81500</v>
       </c>
       <c r="G18" s="3">
-        <v>-800</v>
+        <v>10200</v>
       </c>
       <c r="H18" s="3">
-        <v>-57400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-53600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="G20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>4800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-32000</v>
+        <v>-174800</v>
       </c>
       <c r="E21" s="3">
-        <v>-79200</v>
+        <v>-29900</v>
       </c>
       <c r="F21" s="3">
-        <v>19400</v>
+        <v>-73900</v>
       </c>
       <c r="G21" s="3">
-        <v>5300</v>
+        <v>18100</v>
       </c>
       <c r="H21" s="3">
-        <v>-48300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-45100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32600</v>
+        <v>-176000</v>
       </c>
       <c r="E23" s="3">
-        <v>-79900</v>
+        <v>-30500</v>
       </c>
       <c r="F23" s="3">
-        <v>17100</v>
+        <v>-74700</v>
       </c>
       <c r="G23" s="3">
-        <v>500</v>
+        <v>16000</v>
       </c>
       <c r="H23" s="3">
-        <v>-52200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-48800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,30 +1224,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>400</v>
-      </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34900</v>
+        <v>-177300</v>
       </c>
       <c r="E26" s="3">
-        <v>-80500</v>
+        <v>-32600</v>
       </c>
       <c r="F26" s="3">
-        <v>16400</v>
+        <v>-75200</v>
       </c>
       <c r="G26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-52400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-48900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34800</v>
+        <v>-172600</v>
       </c>
       <c r="E27" s="3">
-        <v>-200200</v>
+        <v>-32500</v>
       </c>
       <c r="F27" s="3">
-        <v>-22700</v>
+        <v>-187000</v>
       </c>
       <c r="G27" s="3">
-        <v>-35900</v>
+        <v>-21200</v>
       </c>
       <c r="H27" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-33600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-79000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
-        <v>-7300</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6200</v>
+        <v>-6800</v>
       </c>
       <c r="G32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-4800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34800</v>
+        <v>-172600</v>
       </c>
       <c r="E33" s="3">
-        <v>-200200</v>
+        <v>-32500</v>
       </c>
       <c r="F33" s="3">
-        <v>-22700</v>
+        <v>-187000</v>
       </c>
       <c r="G33" s="3">
-        <v>-35900</v>
+        <v>-21200</v>
       </c>
       <c r="H33" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-33600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-79000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34800</v>
+        <v>-172600</v>
       </c>
       <c r="E35" s="3">
-        <v>-200200</v>
+        <v>-32500</v>
       </c>
       <c r="F35" s="3">
-        <v>-22700</v>
+        <v>-187000</v>
       </c>
       <c r="G35" s="3">
-        <v>-35900</v>
+        <v>-21200</v>
       </c>
       <c r="H35" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-33600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-79000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133100</v>
+        <v>72500</v>
       </c>
       <c r="E41" s="3">
-        <v>174100</v>
+        <v>124300</v>
       </c>
       <c r="F41" s="3">
-        <v>70000</v>
+        <v>162600</v>
       </c>
       <c r="G41" s="3">
-        <v>90500</v>
+        <v>65400</v>
       </c>
       <c r="H41" s="3">
-        <v>161300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>84500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>150700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16000</v>
+        <v>900</v>
       </c>
       <c r="E42" s="3">
-        <v>1800</v>
+        <v>14900</v>
       </c>
       <c r="F42" s="3">
-        <v>11300</v>
+        <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="H42" s="3">
-        <v>46000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>43000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>355300</v>
+        <v>130400</v>
       </c>
       <c r="E43" s="3">
-        <v>345500</v>
+        <v>331900</v>
       </c>
       <c r="F43" s="3">
-        <v>213400</v>
+        <v>322700</v>
       </c>
       <c r="G43" s="3">
-        <v>130600</v>
+        <v>199300</v>
       </c>
       <c r="H43" s="3">
-        <v>30700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>122000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>28600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43900</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
-        <v>67000</v>
+        <v>41000</v>
       </c>
       <c r="F45" s="3">
-        <v>88600</v>
+        <v>62600</v>
       </c>
       <c r="G45" s="3">
-        <v>202200</v>
+        <v>82800</v>
       </c>
       <c r="H45" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>188900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>35600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>548200</v>
+        <v>239800</v>
       </c>
       <c r="E46" s="3">
-        <v>588400</v>
+        <v>512100</v>
       </c>
       <c r="F46" s="3">
-        <v>383200</v>
+        <v>549700</v>
       </c>
       <c r="G46" s="3">
-        <v>428500</v>
+        <v>358000</v>
       </c>
       <c r="H46" s="3">
-        <v>276100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>400200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>257900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80200</v>
+        <v>40000</v>
       </c>
       <c r="E47" s="3">
-        <v>97700</v>
+        <v>74900</v>
       </c>
       <c r="F47" s="3">
-        <v>63400</v>
+        <v>91300</v>
       </c>
       <c r="G47" s="3">
-        <v>14900</v>
+        <v>59300</v>
       </c>
       <c r="H47" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3500</v>
-      </c>
       <c r="H48" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,17 +2017,20 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1937,15 +2047,18 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>5000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>638600</v>
+        <v>281900</v>
       </c>
       <c r="E54" s="3">
-        <v>689700</v>
+        <v>596500</v>
       </c>
       <c r="F54" s="3">
-        <v>454200</v>
+        <v>644300</v>
       </c>
       <c r="G54" s="3">
-        <v>448700</v>
+        <v>424300</v>
       </c>
       <c r="H54" s="3">
-        <v>296800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>419100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>277300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>283400</v>
+        <v>173300</v>
       </c>
       <c r="E57" s="3">
-        <v>299400</v>
+        <v>264700</v>
       </c>
       <c r="F57" s="3">
-        <v>178000</v>
+        <v>279600</v>
       </c>
       <c r="G57" s="3">
-        <v>93600</v>
+        <v>166300</v>
       </c>
       <c r="H57" s="3">
-        <v>40200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>87500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>37600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70000</v>
+        <v>19900</v>
       </c>
       <c r="E58" s="3">
-        <v>77300</v>
+        <v>65300</v>
       </c>
       <c r="F58" s="3">
-        <v>62300</v>
+        <v>72200</v>
       </c>
       <c r="G58" s="3">
-        <v>104600</v>
+        <v>58200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>97700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50200</v>
+        <v>39800</v>
       </c>
       <c r="E59" s="3">
-        <v>60500</v>
+        <v>46900</v>
       </c>
       <c r="F59" s="3">
-        <v>73800</v>
+        <v>56500</v>
       </c>
       <c r="G59" s="3">
-        <v>130900</v>
+        <v>68900</v>
       </c>
       <c r="H59" s="3">
-        <v>131500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>122200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>122800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>403500</v>
+        <v>232900</v>
       </c>
       <c r="E60" s="3">
-        <v>437200</v>
+        <v>376900</v>
       </c>
       <c r="F60" s="3">
-        <v>314100</v>
+        <v>408400</v>
       </c>
       <c r="G60" s="3">
-        <v>329100</v>
+        <v>293400</v>
       </c>
       <c r="H60" s="3">
-        <v>171700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>307400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>160400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,30 +2445,33 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>410900</v>
+        <v>235700</v>
       </c>
       <c r="E66" s="3">
-        <v>439100</v>
+        <v>383800</v>
       </c>
       <c r="F66" s="3">
-        <v>316100</v>
+        <v>410100</v>
       </c>
       <c r="G66" s="3">
-        <v>329800</v>
+        <v>295200</v>
       </c>
       <c r="H66" s="3">
-        <v>172000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>308100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>160600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>433600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>372700</v>
+        <v>405000</v>
       </c>
       <c r="H70" s="3">
-        <v>360300</v>
+        <v>348200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>336500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-495800</v>
+        <v>-635700</v>
       </c>
       <c r="E72" s="3">
-        <v>-461000</v>
+        <v>-463100</v>
       </c>
       <c r="F72" s="3">
-        <v>-260800</v>
+        <v>-430600</v>
       </c>
       <c r="G72" s="3">
-        <v>-238100</v>
+        <v>-243600</v>
       </c>
       <c r="H72" s="3">
-        <v>-202100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-222400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-188800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>227700</v>
+        <v>46200</v>
       </c>
       <c r="E76" s="3">
-        <v>250700</v>
+        <v>212700</v>
       </c>
       <c r="F76" s="3">
-        <v>-295400</v>
+        <v>234200</v>
       </c>
       <c r="G76" s="3">
-        <v>-253800</v>
+        <v>-275900</v>
       </c>
       <c r="H76" s="3">
-        <v>-235400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-237200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-219900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34800</v>
+        <v>-172600</v>
       </c>
       <c r="E81" s="3">
-        <v>-200200</v>
+        <v>-32500</v>
       </c>
       <c r="F81" s="3">
-        <v>-22700</v>
+        <v>-187000</v>
       </c>
       <c r="G81" s="3">
-        <v>-35900</v>
+        <v>-21200</v>
       </c>
       <c r="H81" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-33600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-79000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
-        <v>800</v>
-      </c>
       <c r="F83" s="3">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="G83" s="3">
-        <v>4800</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-51300</v>
+        <v>-8900</v>
       </c>
       <c r="E89" s="3">
-        <v>18700</v>
+        <v>-47900</v>
       </c>
       <c r="F89" s="3">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="G89" s="3">
-        <v>-106400</v>
+        <v>19100</v>
       </c>
       <c r="H89" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-99400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-26100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-3600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-23900</v>
-      </c>
       <c r="F94" s="3">
-        <v>-55200</v>
+        <v>-22400</v>
       </c>
       <c r="G94" s="3">
-        <v>33500</v>
+        <v>-51600</v>
       </c>
       <c r="H94" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>31300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-28700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,30 +3666,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7300</v>
+        <v>-45300</v>
       </c>
       <c r="E100" s="3">
-        <v>93600</v>
+        <v>-6900</v>
       </c>
       <c r="F100" s="3">
-        <v>-42300</v>
+        <v>87400</v>
       </c>
       <c r="G100" s="3">
-        <v>104600</v>
+        <v>-39500</v>
       </c>
       <c r="H100" s="3">
+        <v>97700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,29 +3702,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-6300</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-5900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62800</v>
+        <v>-61900</v>
       </c>
       <c r="E102" s="3">
-        <v>85100</v>
+        <v>-58600</v>
       </c>
       <c r="F102" s="3">
-        <v>-74100</v>
+        <v>79500</v>
       </c>
       <c r="G102" s="3">
-        <v>25400</v>
+        <v>-69200</v>
       </c>
       <c r="H102" s="3">
-        <v>-51700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-48300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>138900</v>
+        <v>137600</v>
       </c>
       <c r="E8" s="3">
-        <v>361200</v>
+        <v>358000</v>
       </c>
       <c r="F8" s="3">
-        <v>530400</v>
+        <v>525600</v>
       </c>
       <c r="G8" s="3">
-        <v>336300</v>
+        <v>333300</v>
       </c>
       <c r="H8" s="3">
-        <v>265000</v>
+        <v>262600</v>
       </c>
       <c r="I8" s="3">
-        <v>217500</v>
+        <v>215500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>123200</v>
+        <v>122100</v>
       </c>
       <c r="E9" s="3">
-        <v>300100</v>
+        <v>297400</v>
       </c>
       <c r="F9" s="3">
-        <v>418900</v>
+        <v>415100</v>
       </c>
       <c r="G9" s="3">
-        <v>266100</v>
+        <v>263700</v>
       </c>
       <c r="H9" s="3">
-        <v>208800</v>
+        <v>206900</v>
       </c>
       <c r="I9" s="3">
-        <v>183800</v>
+        <v>182200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="E10" s="3">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="F10" s="3">
-        <v>111600</v>
+        <v>110600</v>
       </c>
       <c r="G10" s="3">
-        <v>70200</v>
+        <v>69600</v>
       </c>
       <c r="H10" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="I10" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="E12" s="3">
-        <v>44400</v>
+        <v>44000</v>
       </c>
       <c r="F12" s="3">
-        <v>106800</v>
+        <v>105900</v>
       </c>
       <c r="G12" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="H12" s="3">
-        <v>28200</v>
+        <v>28000</v>
       </c>
       <c r="I12" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>317700</v>
+        <v>314800</v>
       </c>
       <c r="E17" s="3">
-        <v>394500</v>
+        <v>391000</v>
       </c>
       <c r="F17" s="3">
-        <v>611900</v>
+        <v>606300</v>
       </c>
       <c r="G17" s="3">
-        <v>326100</v>
+        <v>323100</v>
       </c>
       <c r="H17" s="3">
-        <v>265700</v>
+        <v>263300</v>
       </c>
       <c r="I17" s="3">
-        <v>271100</v>
+        <v>268600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-178800</v>
+        <v>-177200</v>
       </c>
       <c r="E18" s="3">
-        <v>-33300</v>
+        <v>-33000</v>
       </c>
       <c r="F18" s="3">
-        <v>-81500</v>
+        <v>-80700</v>
       </c>
       <c r="G18" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-53600</v>
+        <v>-53100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1096,10 +1096,10 @@
         <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-174800</v>
+        <v>-173300</v>
       </c>
       <c r="E21" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="F21" s="3">
-        <v>-73900</v>
+        <v>-73300</v>
       </c>
       <c r="G21" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="H21" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I21" s="3">
-        <v>-45100</v>
+        <v>-44700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-176000</v>
+        <v>-174400</v>
       </c>
       <c r="E23" s="3">
-        <v>-30500</v>
+        <v>-30200</v>
       </c>
       <c r="F23" s="3">
-        <v>-74700</v>
+        <v>-74000</v>
       </c>
       <c r="G23" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>-48800</v>
+        <v>-48300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1237,13 +1237,13 @@
         <v>1300</v>
       </c>
       <c r="E24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>700</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-177300</v>
+        <v>-175700</v>
       </c>
       <c r="E26" s="3">
-        <v>-32600</v>
+        <v>-32300</v>
       </c>
       <c r="F26" s="3">
-        <v>-75200</v>
+        <v>-74500</v>
       </c>
       <c r="G26" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>-48900</v>
+        <v>-48500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-172600</v>
+        <v>-171000</v>
       </c>
       <c r="E27" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="F27" s="3">
-        <v>-187000</v>
+        <v>-185300</v>
       </c>
       <c r="G27" s="3">
-        <v>-21200</v>
+        <v>-21100</v>
       </c>
       <c r="H27" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="I27" s="3">
-        <v>-79000</v>
+        <v>-78300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1528,10 +1528,10 @@
         <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-172600</v>
+        <v>-171000</v>
       </c>
       <c r="E33" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="F33" s="3">
-        <v>-187000</v>
+        <v>-185300</v>
       </c>
       <c r="G33" s="3">
-        <v>-21200</v>
+        <v>-21100</v>
       </c>
       <c r="H33" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="I33" s="3">
-        <v>-79000</v>
+        <v>-78300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-172600</v>
+        <v>-171000</v>
       </c>
       <c r="E35" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="F35" s="3">
-        <v>-187000</v>
+        <v>-185300</v>
       </c>
       <c r="G35" s="3">
-        <v>-21200</v>
+        <v>-21100</v>
       </c>
       <c r="H35" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="I35" s="3">
-        <v>-79000</v>
+        <v>-78300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72500</v>
+        <v>71900</v>
       </c>
       <c r="E41" s="3">
-        <v>124300</v>
+        <v>123200</v>
       </c>
       <c r="F41" s="3">
-        <v>162600</v>
+        <v>161200</v>
       </c>
       <c r="G41" s="3">
-        <v>65400</v>
+        <v>64800</v>
       </c>
       <c r="H41" s="3">
-        <v>84500</v>
+        <v>83800</v>
       </c>
       <c r="I41" s="3">
-        <v>150700</v>
+        <v>149400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>900</v>
       </c>
       <c r="E42" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="F42" s="3">
         <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H42" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130400</v>
+        <v>129200</v>
       </c>
       <c r="E43" s="3">
-        <v>331900</v>
+        <v>328900</v>
       </c>
       <c r="F43" s="3">
-        <v>322700</v>
+        <v>319800</v>
       </c>
       <c r="G43" s="3">
-        <v>199300</v>
+        <v>197500</v>
       </c>
       <c r="H43" s="3">
-        <v>122000</v>
+        <v>120900</v>
       </c>
       <c r="I43" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36000</v>
+        <v>35700</v>
       </c>
       <c r="E45" s="3">
-        <v>41000</v>
+        <v>40700</v>
       </c>
       <c r="F45" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="G45" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="H45" s="3">
-        <v>188900</v>
+        <v>187200</v>
       </c>
       <c r="I45" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>239800</v>
+        <v>237600</v>
       </c>
       <c r="E46" s="3">
-        <v>512100</v>
+        <v>507500</v>
       </c>
       <c r="F46" s="3">
-        <v>549700</v>
+        <v>544700</v>
       </c>
       <c r="G46" s="3">
-        <v>358000</v>
+        <v>354700</v>
       </c>
       <c r="H46" s="3">
-        <v>400200</v>
+        <v>396600</v>
       </c>
       <c r="I46" s="3">
-        <v>257900</v>
+        <v>255600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="E47" s="3">
-        <v>74900</v>
+        <v>74300</v>
       </c>
       <c r="F47" s="3">
-        <v>91300</v>
+        <v>90400</v>
       </c>
       <c r="G47" s="3">
-        <v>59300</v>
+        <v>58700</v>
       </c>
       <c r="H47" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="I47" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2003,10 +2003,10 @@
         <v>2300</v>
       </c>
       <c r="H48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I48" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2144,13 +2144,13 @@
         <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>281900</v>
+        <v>279400</v>
       </c>
       <c r="E54" s="3">
-        <v>596500</v>
+        <v>591100</v>
       </c>
       <c r="F54" s="3">
-        <v>644300</v>
+        <v>638500</v>
       </c>
       <c r="G54" s="3">
-        <v>424300</v>
+        <v>420500</v>
       </c>
       <c r="H54" s="3">
-        <v>419100</v>
+        <v>415300</v>
       </c>
       <c r="I54" s="3">
-        <v>277300</v>
+        <v>274800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>173300</v>
+        <v>171700</v>
       </c>
       <c r="E57" s="3">
-        <v>264700</v>
+        <v>262300</v>
       </c>
       <c r="F57" s="3">
-        <v>279600</v>
+        <v>277100</v>
       </c>
       <c r="G57" s="3">
-        <v>166300</v>
+        <v>164800</v>
       </c>
       <c r="H57" s="3">
-        <v>87500</v>
+        <v>86700</v>
       </c>
       <c r="I57" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="E58" s="3">
-        <v>65300</v>
+        <v>64800</v>
       </c>
       <c r="F58" s="3">
-        <v>72200</v>
+        <v>71600</v>
       </c>
       <c r="G58" s="3">
-        <v>58200</v>
+        <v>57700</v>
       </c>
       <c r="H58" s="3">
-        <v>97700</v>
+        <v>96800</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="E59" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="F59" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="G59" s="3">
-        <v>68900</v>
+        <v>68300</v>
       </c>
       <c r="H59" s="3">
-        <v>122200</v>
+        <v>121100</v>
       </c>
       <c r="I59" s="3">
-        <v>122800</v>
+        <v>121700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>232900</v>
+        <v>230800</v>
       </c>
       <c r="E60" s="3">
-        <v>376900</v>
+        <v>373500</v>
       </c>
       <c r="F60" s="3">
-        <v>408400</v>
+        <v>404700</v>
       </c>
       <c r="G60" s="3">
-        <v>293400</v>
+        <v>290700</v>
       </c>
       <c r="H60" s="3">
-        <v>307400</v>
+        <v>304600</v>
       </c>
       <c r="I60" s="3">
-        <v>160400</v>
+        <v>159000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2461,10 +2461,10 @@
         <v>3500</v>
       </c>
       <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235700</v>
+        <v>233600</v>
       </c>
       <c r="E66" s="3">
-        <v>383800</v>
+        <v>380300</v>
       </c>
       <c r="F66" s="3">
-        <v>410100</v>
+        <v>406400</v>
       </c>
       <c r="G66" s="3">
-        <v>295200</v>
+        <v>292600</v>
       </c>
       <c r="H66" s="3">
-        <v>308100</v>
+        <v>305300</v>
       </c>
       <c r="I66" s="3">
-        <v>160600</v>
+        <v>159200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>405000</v>
+        <v>401400</v>
       </c>
       <c r="H70" s="3">
-        <v>348200</v>
+        <v>345000</v>
       </c>
       <c r="I70" s="3">
-        <v>336500</v>
+        <v>333500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-635700</v>
+        <v>-629900</v>
       </c>
       <c r="E72" s="3">
-        <v>-463100</v>
+        <v>-458900</v>
       </c>
       <c r="F72" s="3">
-        <v>-430600</v>
+        <v>-426700</v>
       </c>
       <c r="G72" s="3">
-        <v>-243600</v>
+        <v>-241400</v>
       </c>
       <c r="H72" s="3">
-        <v>-222400</v>
+        <v>-220400</v>
       </c>
       <c r="I72" s="3">
-        <v>-188800</v>
+        <v>-187100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46200</v>
+        <v>45700</v>
       </c>
       <c r="E76" s="3">
-        <v>212700</v>
+        <v>210800</v>
       </c>
       <c r="F76" s="3">
-        <v>234200</v>
+        <v>232000</v>
       </c>
       <c r="G76" s="3">
-        <v>-275900</v>
+        <v>-273500</v>
       </c>
       <c r="H76" s="3">
-        <v>-237200</v>
+        <v>-235000</v>
       </c>
       <c r="I76" s="3">
-        <v>-219900</v>
+        <v>-217900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-172600</v>
+        <v>-171000</v>
       </c>
       <c r="E81" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="F81" s="3">
-        <v>-187000</v>
+        <v>-185300</v>
       </c>
       <c r="G81" s="3">
-        <v>-21200</v>
+        <v>-21100</v>
       </c>
       <c r="H81" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="I81" s="3">
-        <v>-79000</v>
+        <v>-78300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3116,7 +3116,7 @@
         <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I83" s="3">
         <v>3600</v>
@@ -3323,19 +3323,19 @@
         <v>-8900</v>
       </c>
       <c r="E89" s="3">
-        <v>-47900</v>
+        <v>-47500</v>
       </c>
       <c r="F89" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="G89" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H89" s="3">
-        <v>-99400</v>
+        <v>-98500</v>
       </c>
       <c r="I89" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3486,16 +3486,16 @@
         <v>900</v>
       </c>
       <c r="F94" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="G94" s="3">
-        <v>-51600</v>
+        <v>-51100</v>
       </c>
       <c r="H94" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="I94" s="3">
-        <v>-28700</v>
+        <v>-28500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-45300</v>
+        <v>-44900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F100" s="3">
-        <v>87400</v>
+        <v>86700</v>
       </c>
       <c r="G100" s="3">
-        <v>-39500</v>
+        <v>-39200</v>
       </c>
       <c r="H100" s="3">
-        <v>97700</v>
+        <v>96800</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
@@ -3724,10 +3724,10 @@
         <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="I101" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61900</v>
+        <v>-61300</v>
       </c>
       <c r="E102" s="3">
-        <v>-58600</v>
+        <v>-58100</v>
       </c>
       <c r="F102" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="G102" s="3">
-        <v>-69200</v>
+        <v>-68500</v>
       </c>
       <c r="H102" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="I102" s="3">
-        <v>-48300</v>
+        <v>-47800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>137600</v>
+        <v>131200</v>
       </c>
       <c r="E8" s="3">
-        <v>358000</v>
+        <v>341200</v>
       </c>
       <c r="F8" s="3">
-        <v>525600</v>
+        <v>501000</v>
       </c>
       <c r="G8" s="3">
-        <v>333300</v>
+        <v>317700</v>
       </c>
       <c r="H8" s="3">
-        <v>262600</v>
+        <v>250400</v>
       </c>
       <c r="I8" s="3">
-        <v>215500</v>
+        <v>205400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>122100</v>
+        <v>116400</v>
       </c>
       <c r="E9" s="3">
-        <v>297400</v>
+        <v>283500</v>
       </c>
       <c r="F9" s="3">
-        <v>415100</v>
+        <v>395700</v>
       </c>
       <c r="G9" s="3">
-        <v>263700</v>
+        <v>251300</v>
       </c>
       <c r="H9" s="3">
-        <v>206900</v>
+        <v>197200</v>
       </c>
       <c r="I9" s="3">
-        <v>182200</v>
+        <v>173600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="E10" s="3">
-        <v>60500</v>
+        <v>57700</v>
       </c>
       <c r="F10" s="3">
-        <v>110600</v>
+        <v>105400</v>
       </c>
       <c r="G10" s="3">
-        <v>69600</v>
+        <v>66300</v>
       </c>
       <c r="H10" s="3">
-        <v>55700</v>
+        <v>53100</v>
       </c>
       <c r="I10" s="3">
-        <v>33400</v>
+        <v>31800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="E12" s="3">
-        <v>44000</v>
+        <v>42000</v>
       </c>
       <c r="F12" s="3">
-        <v>105900</v>
+        <v>100900</v>
       </c>
       <c r="G12" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="I12" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37400</v>
+        <v>35600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>314800</v>
+        <v>300100</v>
       </c>
       <c r="E17" s="3">
-        <v>391000</v>
+        <v>372700</v>
       </c>
       <c r="F17" s="3">
-        <v>606300</v>
+        <v>578000</v>
       </c>
       <c r="G17" s="3">
-        <v>323100</v>
+        <v>308000</v>
       </c>
       <c r="H17" s="3">
-        <v>263300</v>
+        <v>251000</v>
       </c>
       <c r="I17" s="3">
-        <v>268600</v>
+        <v>256100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-177200</v>
+        <v>-168900</v>
       </c>
       <c r="E18" s="3">
-        <v>-33000</v>
+        <v>-31500</v>
       </c>
       <c r="F18" s="3">
-        <v>-80700</v>
+        <v>-76900</v>
       </c>
       <c r="G18" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-53100</v>
+        <v>-50600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-173300</v>
+        <v>-165200</v>
       </c>
       <c r="E21" s="3">
-        <v>-29600</v>
+        <v>-28300</v>
       </c>
       <c r="F21" s="3">
-        <v>-73300</v>
+        <v>-69900</v>
       </c>
       <c r="G21" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="H21" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="I21" s="3">
-        <v>-44700</v>
+        <v>-42700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-174400</v>
+        <v>-166200</v>
       </c>
       <c r="E23" s="3">
-        <v>-30200</v>
+        <v>-28800</v>
       </c>
       <c r="F23" s="3">
-        <v>-74000</v>
+        <v>-70500</v>
       </c>
       <c r="G23" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>-48300</v>
+        <v>-46100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-175700</v>
+        <v>-167500</v>
       </c>
       <c r="E26" s="3">
-        <v>-32300</v>
+        <v>-30800</v>
       </c>
       <c r="F26" s="3">
-        <v>-74500</v>
+        <v>-71000</v>
       </c>
       <c r="G26" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>-48500</v>
+        <v>-46200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-171000</v>
+        <v>-163000</v>
       </c>
       <c r="E27" s="3">
-        <v>-32200</v>
+        <v>-30700</v>
       </c>
       <c r="F27" s="3">
-        <v>-185300</v>
+        <v>-176600</v>
       </c>
       <c r="G27" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H27" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="I27" s="3">
-        <v>-78300</v>
+        <v>-74700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-171000</v>
+        <v>-163000</v>
       </c>
       <c r="E33" s="3">
-        <v>-32200</v>
+        <v>-30700</v>
       </c>
       <c r="F33" s="3">
-        <v>-185300</v>
+        <v>-176600</v>
       </c>
       <c r="G33" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H33" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="I33" s="3">
-        <v>-78300</v>
+        <v>-74700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-171000</v>
+        <v>-163000</v>
       </c>
       <c r="E35" s="3">
-        <v>-32200</v>
+        <v>-30700</v>
       </c>
       <c r="F35" s="3">
-        <v>-185300</v>
+        <v>-176600</v>
       </c>
       <c r="G35" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H35" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="I35" s="3">
-        <v>-78300</v>
+        <v>-74700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71900</v>
+        <v>68500</v>
       </c>
       <c r="E41" s="3">
-        <v>123200</v>
+        <v>117400</v>
       </c>
       <c r="F41" s="3">
-        <v>161200</v>
+        <v>153600</v>
       </c>
       <c r="G41" s="3">
-        <v>64800</v>
+        <v>61700</v>
       </c>
       <c r="H41" s="3">
-        <v>83800</v>
+        <v>79900</v>
       </c>
       <c r="I41" s="3">
-        <v>149400</v>
+        <v>142400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>900</v>
       </c>
       <c r="E42" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="F42" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G42" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="I42" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>129200</v>
+        <v>123200</v>
       </c>
       <c r="E43" s="3">
-        <v>328900</v>
+        <v>313500</v>
       </c>
       <c r="F43" s="3">
-        <v>319800</v>
+        <v>304800</v>
       </c>
       <c r="G43" s="3">
-        <v>197500</v>
+        <v>188300</v>
       </c>
       <c r="H43" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="I43" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35700</v>
+        <v>34000</v>
       </c>
       <c r="E45" s="3">
-        <v>40700</v>
+        <v>38800</v>
       </c>
       <c r="F45" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="G45" s="3">
-        <v>82000</v>
+        <v>78200</v>
       </c>
       <c r="H45" s="3">
-        <v>187200</v>
+        <v>178400</v>
       </c>
       <c r="I45" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>237600</v>
+        <v>226500</v>
       </c>
       <c r="E46" s="3">
-        <v>507500</v>
+        <v>483700</v>
       </c>
       <c r="F46" s="3">
-        <v>544700</v>
+        <v>519200</v>
       </c>
       <c r="G46" s="3">
-        <v>354700</v>
+        <v>338200</v>
       </c>
       <c r="H46" s="3">
-        <v>396600</v>
+        <v>378000</v>
       </c>
       <c r="I46" s="3">
-        <v>255600</v>
+        <v>243600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39600</v>
+        <v>37700</v>
       </c>
       <c r="E47" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="F47" s="3">
-        <v>90400</v>
+        <v>86200</v>
       </c>
       <c r="G47" s="3">
-        <v>58700</v>
+        <v>56000</v>
       </c>
       <c r="H47" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="I47" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I48" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>279400</v>
+        <v>266300</v>
       </c>
       <c r="E54" s="3">
-        <v>591100</v>
+        <v>563500</v>
       </c>
       <c r="F54" s="3">
-        <v>638500</v>
+        <v>608600</v>
       </c>
       <c r="G54" s="3">
-        <v>420500</v>
+        <v>400800</v>
       </c>
       <c r="H54" s="3">
-        <v>415300</v>
+        <v>395900</v>
       </c>
       <c r="I54" s="3">
-        <v>274800</v>
+        <v>261900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171700</v>
+        <v>163700</v>
       </c>
       <c r="E57" s="3">
-        <v>262300</v>
+        <v>250000</v>
       </c>
       <c r="F57" s="3">
-        <v>277100</v>
+        <v>264100</v>
       </c>
       <c r="G57" s="3">
-        <v>164800</v>
+        <v>157100</v>
       </c>
       <c r="H57" s="3">
-        <v>86700</v>
+        <v>82600</v>
       </c>
       <c r="I57" s="3">
-        <v>37300</v>
+        <v>35500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="E58" s="3">
-        <v>64800</v>
+        <v>61700</v>
       </c>
       <c r="F58" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="G58" s="3">
-        <v>57700</v>
+        <v>55000</v>
       </c>
       <c r="H58" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="E59" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="F59" s="3">
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="G59" s="3">
-        <v>68300</v>
+        <v>65100</v>
       </c>
       <c r="H59" s="3">
-        <v>121100</v>
+        <v>115500</v>
       </c>
       <c r="I59" s="3">
-        <v>121700</v>
+        <v>116000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>230800</v>
+        <v>220000</v>
       </c>
       <c r="E60" s="3">
-        <v>373500</v>
+        <v>356100</v>
       </c>
       <c r="F60" s="3">
-        <v>404700</v>
+        <v>385700</v>
       </c>
       <c r="G60" s="3">
-        <v>290700</v>
+        <v>277100</v>
       </c>
       <c r="H60" s="3">
-        <v>304600</v>
+        <v>290400</v>
       </c>
       <c r="I60" s="3">
-        <v>159000</v>
+        <v>151500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
@@ -2467,7 +2467,7 @@
         <v>1800</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233600</v>
+        <v>222700</v>
       </c>
       <c r="E66" s="3">
-        <v>380300</v>
+        <v>362500</v>
       </c>
       <c r="F66" s="3">
-        <v>406400</v>
+        <v>387400</v>
       </c>
       <c r="G66" s="3">
-        <v>292600</v>
+        <v>278900</v>
       </c>
       <c r="H66" s="3">
-        <v>305300</v>
+        <v>291000</v>
       </c>
       <c r="I66" s="3">
-        <v>159200</v>
+        <v>151700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>401400</v>
+        <v>382600</v>
       </c>
       <c r="H70" s="3">
-        <v>345000</v>
+        <v>328900</v>
       </c>
       <c r="I70" s="3">
-        <v>333500</v>
+        <v>317900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-629900</v>
+        <v>-600500</v>
       </c>
       <c r="E72" s="3">
-        <v>-458900</v>
+        <v>-437400</v>
       </c>
       <c r="F72" s="3">
-        <v>-426700</v>
+        <v>-406800</v>
       </c>
       <c r="G72" s="3">
-        <v>-241400</v>
+        <v>-230100</v>
       </c>
       <c r="H72" s="3">
-        <v>-220400</v>
+        <v>-210100</v>
       </c>
       <c r="I72" s="3">
-        <v>-187100</v>
+        <v>-178400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45700</v>
+        <v>43600</v>
       </c>
       <c r="E76" s="3">
-        <v>210800</v>
+        <v>200900</v>
       </c>
       <c r="F76" s="3">
-        <v>232000</v>
+        <v>221200</v>
       </c>
       <c r="G76" s="3">
-        <v>-273500</v>
+        <v>-260700</v>
       </c>
       <c r="H76" s="3">
-        <v>-235000</v>
+        <v>-224000</v>
       </c>
       <c r="I76" s="3">
-        <v>-217900</v>
+        <v>-207700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-171000</v>
+        <v>-163000</v>
       </c>
       <c r="E81" s="3">
-        <v>-32200</v>
+        <v>-30700</v>
       </c>
       <c r="F81" s="3">
-        <v>-185300</v>
+        <v>-176600</v>
       </c>
       <c r="G81" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H81" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="I81" s="3">
-        <v>-78300</v>
+        <v>-74700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3107,19 +3107,19 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8900</v>
+        <v>-8400</v>
       </c>
       <c r="E89" s="3">
-        <v>-47500</v>
+        <v>-45200</v>
       </c>
       <c r="F89" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="G89" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H89" s="3">
-        <v>-98500</v>
+        <v>-93900</v>
       </c>
       <c r="I89" s="3">
-        <v>-25900</v>
+        <v>-24700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,10 +3372,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3384,10 +3384,10 @@
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="E94" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F94" s="3">
-        <v>-22200</v>
+        <v>-21100</v>
       </c>
       <c r="G94" s="3">
-        <v>-51100</v>
+        <v>-48700</v>
       </c>
       <c r="H94" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="I94" s="3">
-        <v>-28500</v>
+        <v>-27100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44900</v>
+        <v>-42800</v>
       </c>
       <c r="E100" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F100" s="3">
-        <v>86700</v>
+        <v>82600</v>
       </c>
       <c r="G100" s="3">
-        <v>-39200</v>
+        <v>-37300</v>
       </c>
       <c r="H100" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="I100" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,19 +3715,19 @@
         <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61300</v>
+        <v>-58400</v>
       </c>
       <c r="E102" s="3">
-        <v>-58100</v>
+        <v>-55400</v>
       </c>
       <c r="F102" s="3">
-        <v>78800</v>
+        <v>75100</v>
       </c>
       <c r="G102" s="3">
-        <v>-68500</v>
+        <v>-65300</v>
       </c>
       <c r="H102" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="I102" s="3">
-        <v>-47800</v>
+        <v>-45600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>131200</v>
+        <v>135300</v>
       </c>
       <c r="E8" s="3">
-        <v>341200</v>
+        <v>352100</v>
       </c>
       <c r="F8" s="3">
-        <v>501000</v>
+        <v>517000</v>
       </c>
       <c r="G8" s="3">
-        <v>317700</v>
+        <v>327800</v>
       </c>
       <c r="H8" s="3">
-        <v>250400</v>
+        <v>258300</v>
       </c>
       <c r="I8" s="3">
-        <v>205400</v>
+        <v>211900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>116400</v>
+        <v>120000</v>
       </c>
       <c r="E9" s="3">
-        <v>283500</v>
+        <v>292500</v>
       </c>
       <c r="F9" s="3">
-        <v>395700</v>
+        <v>408200</v>
       </c>
       <c r="G9" s="3">
-        <v>251300</v>
+        <v>259300</v>
       </c>
       <c r="H9" s="3">
-        <v>197200</v>
+        <v>203500</v>
       </c>
       <c r="I9" s="3">
-        <v>173600</v>
+        <v>179100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="E10" s="3">
-        <v>57700</v>
+        <v>59500</v>
       </c>
       <c r="F10" s="3">
-        <v>105400</v>
+        <v>108700</v>
       </c>
       <c r="G10" s="3">
-        <v>66300</v>
+        <v>68500</v>
       </c>
       <c r="H10" s="3">
-        <v>53100</v>
+        <v>54800</v>
       </c>
       <c r="I10" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="E12" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="F12" s="3">
-        <v>100900</v>
+        <v>104100</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="H12" s="3">
-        <v>26700</v>
+        <v>27500</v>
       </c>
       <c r="I12" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35600</v>
+        <v>36800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300100</v>
+        <v>309600</v>
       </c>
       <c r="E17" s="3">
-        <v>372700</v>
+        <v>384500</v>
       </c>
       <c r="F17" s="3">
-        <v>578000</v>
+        <v>596300</v>
       </c>
       <c r="G17" s="3">
-        <v>308000</v>
+        <v>317800</v>
       </c>
       <c r="H17" s="3">
-        <v>251000</v>
+        <v>259000</v>
       </c>
       <c r="I17" s="3">
-        <v>256100</v>
+        <v>264200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-168900</v>
+        <v>-174300</v>
       </c>
       <c r="E18" s="3">
-        <v>-31500</v>
+        <v>-32500</v>
       </c>
       <c r="F18" s="3">
-        <v>-76900</v>
+        <v>-79400</v>
       </c>
       <c r="G18" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-50600</v>
+        <v>-52300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-165200</v>
+        <v>-170400</v>
       </c>
       <c r="E21" s="3">
-        <v>-28300</v>
+        <v>-29100</v>
       </c>
       <c r="F21" s="3">
-        <v>-69900</v>
+        <v>-72100</v>
       </c>
       <c r="G21" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="H21" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I21" s="3">
-        <v>-42700</v>
+        <v>-44000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-166200</v>
+        <v>-171500</v>
       </c>
       <c r="E23" s="3">
-        <v>-28800</v>
+        <v>-29700</v>
       </c>
       <c r="F23" s="3">
-        <v>-70500</v>
+        <v>-72800</v>
       </c>
       <c r="G23" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>-46100</v>
+        <v>-47500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-167500</v>
+        <v>-172800</v>
       </c>
       <c r="E26" s="3">
-        <v>-30800</v>
+        <v>-31800</v>
       </c>
       <c r="F26" s="3">
-        <v>-71000</v>
+        <v>-73300</v>
       </c>
       <c r="G26" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>-46200</v>
+        <v>-47700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-163000</v>
+        <v>-168200</v>
       </c>
       <c r="E27" s="3">
-        <v>-30700</v>
+        <v>-31600</v>
       </c>
       <c r="F27" s="3">
-        <v>-176600</v>
+        <v>-182200</v>
       </c>
       <c r="G27" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="H27" s="3">
-        <v>-31700</v>
+        <v>-32700</v>
       </c>
       <c r="I27" s="3">
-        <v>-74700</v>
+        <v>-77000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-163000</v>
+        <v>-168200</v>
       </c>
       <c r="E33" s="3">
-        <v>-30700</v>
+        <v>-31600</v>
       </c>
       <c r="F33" s="3">
-        <v>-176600</v>
+        <v>-182200</v>
       </c>
       <c r="G33" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="H33" s="3">
-        <v>-31700</v>
+        <v>-32700</v>
       </c>
       <c r="I33" s="3">
-        <v>-74700</v>
+        <v>-77000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-163000</v>
+        <v>-168200</v>
       </c>
       <c r="E35" s="3">
-        <v>-30700</v>
+        <v>-31600</v>
       </c>
       <c r="F35" s="3">
-        <v>-176600</v>
+        <v>-182200</v>
       </c>
       <c r="G35" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="H35" s="3">
-        <v>-31700</v>
+        <v>-32700</v>
       </c>
       <c r="I35" s="3">
-        <v>-74700</v>
+        <v>-77000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68500</v>
+        <v>70700</v>
       </c>
       <c r="E41" s="3">
-        <v>117400</v>
+        <v>121100</v>
       </c>
       <c r="F41" s="3">
-        <v>153600</v>
+        <v>158500</v>
       </c>
       <c r="G41" s="3">
-        <v>61700</v>
+        <v>63700</v>
       </c>
       <c r="H41" s="3">
-        <v>79900</v>
+        <v>82400</v>
       </c>
       <c r="I41" s="3">
-        <v>142400</v>
+        <v>146900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>900</v>
       </c>
       <c r="E42" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="F42" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="H42" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3">
-        <v>40600</v>
+        <v>41900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123200</v>
+        <v>127100</v>
       </c>
       <c r="E43" s="3">
-        <v>313500</v>
+        <v>323400</v>
       </c>
       <c r="F43" s="3">
-        <v>304800</v>
+        <v>314500</v>
       </c>
       <c r="G43" s="3">
-        <v>188300</v>
+        <v>194300</v>
       </c>
       <c r="H43" s="3">
-        <v>115200</v>
+        <v>118900</v>
       </c>
       <c r="I43" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34000</v>
+        <v>35100</v>
       </c>
       <c r="E45" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="F45" s="3">
-        <v>59100</v>
+        <v>61000</v>
       </c>
       <c r="G45" s="3">
-        <v>78200</v>
+        <v>80700</v>
       </c>
       <c r="H45" s="3">
-        <v>178400</v>
+        <v>184100</v>
       </c>
       <c r="I45" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>226500</v>
+        <v>233700</v>
       </c>
       <c r="E46" s="3">
-        <v>483700</v>
+        <v>499100</v>
       </c>
       <c r="F46" s="3">
-        <v>519200</v>
+        <v>535700</v>
       </c>
       <c r="G46" s="3">
-        <v>338200</v>
+        <v>348900</v>
       </c>
       <c r="H46" s="3">
-        <v>378000</v>
+        <v>390100</v>
       </c>
       <c r="I46" s="3">
-        <v>243600</v>
+        <v>251400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="E47" s="3">
-        <v>70800</v>
+        <v>73000</v>
       </c>
       <c r="F47" s="3">
-        <v>86200</v>
+        <v>88900</v>
       </c>
       <c r="G47" s="3">
-        <v>56000</v>
+        <v>57800</v>
       </c>
       <c r="H47" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="I47" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
@@ -2003,10 +2003,10 @@
         <v>2200</v>
       </c>
       <c r="H48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I48" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H52" s="3">
         <v>1600</v>
       </c>
       <c r="I52" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266300</v>
+        <v>274700</v>
       </c>
       <c r="E54" s="3">
-        <v>563500</v>
+        <v>581400</v>
       </c>
       <c r="F54" s="3">
-        <v>608600</v>
+        <v>627900</v>
       </c>
       <c r="G54" s="3">
-        <v>400800</v>
+        <v>413500</v>
       </c>
       <c r="H54" s="3">
-        <v>395900</v>
+        <v>408400</v>
       </c>
       <c r="I54" s="3">
-        <v>261900</v>
+        <v>270200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163700</v>
+        <v>168900</v>
       </c>
       <c r="E57" s="3">
-        <v>250000</v>
+        <v>258000</v>
       </c>
       <c r="F57" s="3">
-        <v>264100</v>
+        <v>272500</v>
       </c>
       <c r="G57" s="3">
-        <v>157100</v>
+        <v>162000</v>
       </c>
       <c r="H57" s="3">
-        <v>82600</v>
+        <v>85200</v>
       </c>
       <c r="I57" s="3">
-        <v>35500</v>
+        <v>36600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>61700</v>
+        <v>63700</v>
       </c>
       <c r="F58" s="3">
-        <v>68200</v>
+        <v>70400</v>
       </c>
       <c r="G58" s="3">
-        <v>55000</v>
+        <v>56700</v>
       </c>
       <c r="H58" s="3">
-        <v>92300</v>
+        <v>95200</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37600</v>
+        <v>38800</v>
       </c>
       <c r="E59" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="F59" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="G59" s="3">
-        <v>65100</v>
+        <v>67100</v>
       </c>
       <c r="H59" s="3">
-        <v>115500</v>
+        <v>119100</v>
       </c>
       <c r="I59" s="3">
-        <v>116000</v>
+        <v>119700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>220000</v>
+        <v>227000</v>
       </c>
       <c r="E60" s="3">
-        <v>356100</v>
+        <v>367400</v>
       </c>
       <c r="F60" s="3">
-        <v>385700</v>
+        <v>398000</v>
       </c>
       <c r="G60" s="3">
-        <v>277100</v>
+        <v>285900</v>
       </c>
       <c r="H60" s="3">
-        <v>290400</v>
+        <v>299600</v>
       </c>
       <c r="I60" s="3">
-        <v>151500</v>
+        <v>156300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>222700</v>
+        <v>229800</v>
       </c>
       <c r="E66" s="3">
-        <v>362500</v>
+        <v>374100</v>
       </c>
       <c r="F66" s="3">
-        <v>387400</v>
+        <v>399700</v>
       </c>
       <c r="G66" s="3">
-        <v>278900</v>
+        <v>287700</v>
       </c>
       <c r="H66" s="3">
-        <v>291000</v>
+        <v>300200</v>
       </c>
       <c r="I66" s="3">
-        <v>151700</v>
+        <v>156600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>382600</v>
+        <v>394800</v>
       </c>
       <c r="H70" s="3">
-        <v>328900</v>
+        <v>339300</v>
       </c>
       <c r="I70" s="3">
-        <v>317900</v>
+        <v>328000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600500</v>
+        <v>-619500</v>
       </c>
       <c r="E72" s="3">
-        <v>-437400</v>
+        <v>-451300</v>
       </c>
       <c r="F72" s="3">
-        <v>-406800</v>
+        <v>-419700</v>
       </c>
       <c r="G72" s="3">
-        <v>-230100</v>
+        <v>-237400</v>
       </c>
       <c r="H72" s="3">
-        <v>-210100</v>
+        <v>-216700</v>
       </c>
       <c r="I72" s="3">
-        <v>-178400</v>
+        <v>-184000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43600</v>
+        <v>45000</v>
       </c>
       <c r="E76" s="3">
-        <v>200900</v>
+        <v>207300</v>
       </c>
       <c r="F76" s="3">
-        <v>221200</v>
+        <v>228200</v>
       </c>
       <c r="G76" s="3">
-        <v>-260700</v>
+        <v>-269000</v>
       </c>
       <c r="H76" s="3">
-        <v>-224000</v>
+        <v>-231100</v>
       </c>
       <c r="I76" s="3">
-        <v>-207700</v>
+        <v>-214300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-163000</v>
+        <v>-168200</v>
       </c>
       <c r="E81" s="3">
-        <v>-30700</v>
+        <v>-31600</v>
       </c>
       <c r="F81" s="3">
-        <v>-176600</v>
+        <v>-182200</v>
       </c>
       <c r="G81" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="H81" s="3">
-        <v>-31700</v>
+        <v>-32700</v>
       </c>
       <c r="I81" s="3">
-        <v>-74700</v>
+        <v>-77000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3116,10 +3116,10 @@
         <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-45200</v>
+        <v>-46700</v>
       </c>
       <c r="F89" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="G89" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="H89" s="3">
-        <v>-93900</v>
+        <v>-96900</v>
       </c>
       <c r="I89" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,10 +3372,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3384,10 +3384,10 @@
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="E94" s="3">
         <v>800</v>
       </c>
       <c r="F94" s="3">
-        <v>-21100</v>
+        <v>-21800</v>
       </c>
       <c r="G94" s="3">
-        <v>-48700</v>
+        <v>-50200</v>
       </c>
       <c r="H94" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="I94" s="3">
-        <v>-27100</v>
+        <v>-28000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-42800</v>
+        <v>-44100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="F100" s="3">
-        <v>82600</v>
+        <v>85200</v>
       </c>
       <c r="G100" s="3">
-        <v>-37300</v>
+        <v>-38500</v>
       </c>
       <c r="H100" s="3">
-        <v>92300</v>
+        <v>95200</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
@@ -3715,7 +3715,7 @@
         <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F101" s="3">
         <v>-2900</v>
@@ -3724,10 +3724,10 @@
         <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-58400</v>
+        <v>-60300</v>
       </c>
       <c r="E102" s="3">
-        <v>-55400</v>
+        <v>-57100</v>
       </c>
       <c r="F102" s="3">
-        <v>75100</v>
+        <v>77500</v>
       </c>
       <c r="G102" s="3">
-        <v>-65300</v>
+        <v>-67400</v>
       </c>
       <c r="H102" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="I102" s="3">
-        <v>-45600</v>
+        <v>-47000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>DUO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>135300</v>
+        <v>35000</v>
       </c>
       <c r="E8" s="3">
-        <v>352100</v>
+        <v>134000</v>
       </c>
       <c r="F8" s="3">
-        <v>517000</v>
+        <v>348500</v>
       </c>
       <c r="G8" s="3">
-        <v>327800</v>
+        <v>511700</v>
       </c>
       <c r="H8" s="3">
-        <v>258300</v>
+        <v>324400</v>
       </c>
       <c r="I8" s="3">
-        <v>211900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>255700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>209800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>120000</v>
+        <v>31400</v>
       </c>
       <c r="E9" s="3">
-        <v>292500</v>
+        <v>118800</v>
       </c>
       <c r="F9" s="3">
-        <v>408200</v>
+        <v>289500</v>
       </c>
       <c r="G9" s="3">
-        <v>259300</v>
+        <v>404000</v>
       </c>
       <c r="H9" s="3">
-        <v>203500</v>
+        <v>256700</v>
       </c>
       <c r="I9" s="3">
-        <v>179100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>201400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>177300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>59500</v>
+        <v>15100</v>
       </c>
       <c r="F10" s="3">
-        <v>108700</v>
+        <v>58900</v>
       </c>
       <c r="G10" s="3">
-        <v>68500</v>
+        <v>107600</v>
       </c>
       <c r="H10" s="3">
-        <v>54800</v>
+        <v>67800</v>
       </c>
       <c r="I10" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>54200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>32500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +851,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24100</v>
+        <v>9400</v>
       </c>
       <c r="E12" s="3">
-        <v>43300</v>
+        <v>23800</v>
       </c>
       <c r="F12" s="3">
-        <v>104100</v>
+        <v>42800</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>103100</v>
       </c>
       <c r="H12" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="I12" s="3">
-        <v>26200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>27200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>26000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,24 +926,27 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36800</v>
+        <v>11100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,12 +962,15 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>309600</v>
+        <v>81500</v>
       </c>
       <c r="E17" s="3">
-        <v>384500</v>
+        <v>306400</v>
       </c>
       <c r="F17" s="3">
-        <v>596300</v>
+        <v>380600</v>
       </c>
       <c r="G17" s="3">
-        <v>317800</v>
+        <v>590200</v>
       </c>
       <c r="H17" s="3">
-        <v>259000</v>
+        <v>314600</v>
       </c>
       <c r="I17" s="3">
-        <v>264200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>256400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>261500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-174300</v>
+        <v>-46600</v>
       </c>
       <c r="E18" s="3">
-        <v>-32500</v>
+        <v>-172500</v>
       </c>
       <c r="F18" s="3">
-        <v>-79400</v>
+        <v>-32100</v>
       </c>
       <c r="G18" s="3">
-        <v>10000</v>
+        <v>-78600</v>
       </c>
       <c r="H18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-51700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2800</v>
+        <v>13600</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-170400</v>
+        <v>-32600</v>
       </c>
       <c r="E21" s="3">
-        <v>-29100</v>
+        <v>-168600</v>
       </c>
       <c r="F21" s="3">
-        <v>-72100</v>
+        <v>-28800</v>
       </c>
       <c r="G21" s="3">
-        <v>17600</v>
+        <v>-71300</v>
       </c>
       <c r="H21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I21" s="3">
         <v>4800</v>
       </c>
-      <c r="I21" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-43500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171500</v>
+        <v>-33000</v>
       </c>
       <c r="E23" s="3">
-        <v>-29700</v>
+        <v>-169700</v>
       </c>
       <c r="F23" s="3">
-        <v>-72800</v>
+        <v>-29400</v>
       </c>
       <c r="G23" s="3">
-        <v>15600</v>
+        <v>-72000</v>
       </c>
       <c r="H23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-47500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-47000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,33 +1269,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172800</v>
+        <v>-34100</v>
       </c>
       <c r="E26" s="3">
-        <v>-31800</v>
+        <v>-171000</v>
       </c>
       <c r="F26" s="3">
-        <v>-73300</v>
+        <v>-31500</v>
       </c>
       <c r="G26" s="3">
-        <v>14900</v>
+        <v>-72600</v>
       </c>
       <c r="H26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-47700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-47200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-168200</v>
+        <v>-34700</v>
       </c>
       <c r="E27" s="3">
-        <v>-31600</v>
+        <v>-166500</v>
       </c>
       <c r="F27" s="3">
-        <v>-182200</v>
+        <v>-31300</v>
       </c>
       <c r="G27" s="3">
-        <v>-20700</v>
+        <v>-180400</v>
       </c>
       <c r="H27" s="3">
-        <v>-32700</v>
+        <v>-20500</v>
       </c>
       <c r="I27" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-32400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-76300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2800</v>
+        <v>-13600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-168200</v>
+        <v>-34700</v>
       </c>
       <c r="E33" s="3">
-        <v>-31600</v>
+        <v>-166500</v>
       </c>
       <c r="F33" s="3">
-        <v>-182200</v>
+        <v>-31300</v>
       </c>
       <c r="G33" s="3">
-        <v>-20700</v>
+        <v>-180400</v>
       </c>
       <c r="H33" s="3">
-        <v>-32700</v>
+        <v>-20500</v>
       </c>
       <c r="I33" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-32400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-76300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-168200</v>
+        <v>-34700</v>
       </c>
       <c r="E35" s="3">
-        <v>-31600</v>
+        <v>-166500</v>
       </c>
       <c r="F35" s="3">
-        <v>-182200</v>
+        <v>-31300</v>
       </c>
       <c r="G35" s="3">
-        <v>-20700</v>
+        <v>-180400</v>
       </c>
       <c r="H35" s="3">
-        <v>-32700</v>
+        <v>-20500</v>
       </c>
       <c r="I35" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-32400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-76300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70700</v>
+        <v>20500</v>
       </c>
       <c r="E41" s="3">
-        <v>121100</v>
+        <v>70000</v>
       </c>
       <c r="F41" s="3">
-        <v>158500</v>
+        <v>119900</v>
       </c>
       <c r="G41" s="3">
-        <v>63700</v>
+        <v>156900</v>
       </c>
       <c r="H41" s="3">
-        <v>82400</v>
+        <v>63100</v>
       </c>
       <c r="I41" s="3">
-        <v>146900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>145400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
-        <v>14500</v>
-      </c>
       <c r="F42" s="3">
-        <v>1700</v>
+        <v>14400</v>
       </c>
       <c r="G42" s="3">
-        <v>10300</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>10200</v>
       </c>
       <c r="I42" s="3">
-        <v>41900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>41400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>127100</v>
+        <v>83900</v>
       </c>
       <c r="E43" s="3">
-        <v>323400</v>
+        <v>125800</v>
       </c>
       <c r="F43" s="3">
-        <v>314500</v>
+        <v>320100</v>
       </c>
       <c r="G43" s="3">
-        <v>194300</v>
+        <v>311300</v>
       </c>
       <c r="H43" s="3">
-        <v>118900</v>
+        <v>192300</v>
       </c>
       <c r="I43" s="3">
-        <v>27900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>117700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>27600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,32 +1932,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35100</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>40000</v>
+        <v>34700</v>
       </c>
       <c r="F45" s="3">
-        <v>61000</v>
+        <v>39600</v>
       </c>
       <c r="G45" s="3">
-        <v>80700</v>
+        <v>60400</v>
       </c>
       <c r="H45" s="3">
-        <v>184100</v>
+        <v>79800</v>
       </c>
       <c r="I45" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>182200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>34400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233700</v>
+        <v>122100</v>
       </c>
       <c r="E46" s="3">
-        <v>499100</v>
+        <v>231300</v>
       </c>
       <c r="F46" s="3">
-        <v>535700</v>
+        <v>494000</v>
       </c>
       <c r="G46" s="3">
-        <v>348900</v>
+        <v>530200</v>
       </c>
       <c r="H46" s="3">
-        <v>390100</v>
+        <v>345300</v>
       </c>
       <c r="I46" s="3">
-        <v>251400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>386100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>248800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,33 +2049,36 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38900</v>
+        <v>30100</v>
       </c>
       <c r="E47" s="3">
-        <v>73000</v>
+        <v>38500</v>
       </c>
       <c r="F47" s="3">
-        <v>88900</v>
+        <v>72300</v>
       </c>
       <c r="G47" s="3">
-        <v>57800</v>
+        <v>88000</v>
       </c>
       <c r="H47" s="3">
-        <v>13600</v>
+        <v>57200</v>
       </c>
       <c r="I47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J47" s="3">
         <v>7000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>2100</v>
       </c>
       <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
-        <v>3200</v>
-      </c>
       <c r="I48" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,21 +2127,24 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>5500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,15 +2160,18 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
-        <v>4700</v>
-      </c>
       <c r="H52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>4800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>274700</v>
+        <v>153000</v>
       </c>
       <c r="E54" s="3">
-        <v>581400</v>
+        <v>271900</v>
       </c>
       <c r="F54" s="3">
-        <v>627900</v>
+        <v>575400</v>
       </c>
       <c r="G54" s="3">
-        <v>413500</v>
+        <v>621500</v>
       </c>
       <c r="H54" s="3">
-        <v>408400</v>
+        <v>409300</v>
       </c>
       <c r="I54" s="3">
-        <v>270200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>404300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>267500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>168900</v>
+        <v>107600</v>
       </c>
       <c r="E57" s="3">
-        <v>258000</v>
+        <v>167200</v>
       </c>
       <c r="F57" s="3">
-        <v>272500</v>
+        <v>255300</v>
       </c>
       <c r="G57" s="3">
-        <v>162000</v>
+        <v>269700</v>
       </c>
       <c r="H57" s="3">
-        <v>85200</v>
+        <v>160400</v>
       </c>
       <c r="I57" s="3">
-        <v>36600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>84400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>36300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>10300</v>
       </c>
       <c r="E58" s="3">
-        <v>63700</v>
+        <v>19200</v>
       </c>
       <c r="F58" s="3">
-        <v>70400</v>
+        <v>63000</v>
       </c>
       <c r="G58" s="3">
-        <v>56700</v>
+        <v>69700</v>
       </c>
       <c r="H58" s="3">
-        <v>95200</v>
+        <v>56100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>94300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38800</v>
+        <v>17100</v>
       </c>
       <c r="E59" s="3">
-        <v>45700</v>
+        <v>38400</v>
       </c>
       <c r="F59" s="3">
-        <v>55100</v>
+        <v>45200</v>
       </c>
       <c r="G59" s="3">
-        <v>67100</v>
+        <v>54500</v>
       </c>
       <c r="H59" s="3">
-        <v>119100</v>
+        <v>66500</v>
       </c>
       <c r="I59" s="3">
-        <v>119700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>117900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>118500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>227000</v>
+        <v>135000</v>
       </c>
       <c r="E60" s="3">
-        <v>367400</v>
+        <v>224700</v>
       </c>
       <c r="F60" s="3">
-        <v>398000</v>
+        <v>363600</v>
       </c>
       <c r="G60" s="3">
-        <v>285900</v>
+        <v>393900</v>
       </c>
       <c r="H60" s="3">
-        <v>299600</v>
+        <v>283000</v>
       </c>
       <c r="I60" s="3">
-        <v>156300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>296500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>154700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,33 +2590,36 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229800</v>
+        <v>138800</v>
       </c>
       <c r="E66" s="3">
-        <v>374100</v>
+        <v>227400</v>
       </c>
       <c r="F66" s="3">
-        <v>399700</v>
+        <v>370200</v>
       </c>
       <c r="G66" s="3">
-        <v>287700</v>
+        <v>395600</v>
       </c>
       <c r="H66" s="3">
-        <v>300200</v>
+        <v>284800</v>
       </c>
       <c r="I66" s="3">
-        <v>156600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>297200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>155000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>394800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>339300</v>
+        <v>390700</v>
       </c>
       <c r="I70" s="3">
-        <v>328000</v>
+        <v>335800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>324600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-619500</v>
+        <v>-647900</v>
       </c>
       <c r="E72" s="3">
-        <v>-451300</v>
+        <v>-613200</v>
       </c>
       <c r="F72" s="3">
-        <v>-419700</v>
+        <v>-446700</v>
       </c>
       <c r="G72" s="3">
-        <v>-237400</v>
+        <v>-415400</v>
       </c>
       <c r="H72" s="3">
-        <v>-216700</v>
+        <v>-235000</v>
       </c>
       <c r="I72" s="3">
-        <v>-184000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-214500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-182100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45000</v>
+        <v>14200</v>
       </c>
       <c r="E76" s="3">
-        <v>207300</v>
+        <v>44500</v>
       </c>
       <c r="F76" s="3">
-        <v>228200</v>
+        <v>205200</v>
       </c>
       <c r="G76" s="3">
-        <v>-269000</v>
+        <v>225900</v>
       </c>
       <c r="H76" s="3">
-        <v>-231100</v>
+        <v>-266200</v>
       </c>
       <c r="I76" s="3">
-        <v>-214300</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-228700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-212100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-168200</v>
+        <v>-34700</v>
       </c>
       <c r="E81" s="3">
-        <v>-31600</v>
+        <v>-166500</v>
       </c>
       <c r="F81" s="3">
-        <v>-182200</v>
+        <v>-31300</v>
       </c>
       <c r="G81" s="3">
-        <v>-20700</v>
+        <v>-180400</v>
       </c>
       <c r="H81" s="3">
-        <v>-32700</v>
+        <v>-20500</v>
       </c>
       <c r="I81" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-32400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-76300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
-        <v>4400</v>
-      </c>
       <c r="I83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8700</v>
+        <v>-18100</v>
       </c>
       <c r="E89" s="3">
-        <v>-46700</v>
+        <v>-8600</v>
       </c>
       <c r="F89" s="3">
-        <v>17000</v>
+        <v>-46200</v>
       </c>
       <c r="G89" s="3">
-        <v>18600</v>
+        <v>16800</v>
       </c>
       <c r="H89" s="3">
-        <v>-96900</v>
+        <v>18400</v>
       </c>
       <c r="I89" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-95900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-25200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6300</v>
+        <v>-22600</v>
       </c>
       <c r="E94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-21800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-50200</v>
+        <v>-21600</v>
       </c>
       <c r="H94" s="3">
-        <v>30500</v>
+        <v>-49700</v>
       </c>
       <c r="I94" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-27700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,33 +3911,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44100</v>
+        <v>-8300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6700</v>
+        <v>-43700</v>
       </c>
       <c r="F100" s="3">
-        <v>85200</v>
+        <v>-6600</v>
       </c>
       <c r="G100" s="3">
-        <v>-38500</v>
+        <v>84400</v>
       </c>
       <c r="H100" s="3">
-        <v>95200</v>
+        <v>-38100</v>
       </c>
       <c r="I100" s="3">
+        <v>94300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5700</v>
       </c>
-      <c r="I101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>6700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-60300</v>
+        <v>-47400</v>
       </c>
       <c r="E102" s="3">
-        <v>-57100</v>
+        <v>-59700</v>
       </c>
       <c r="F102" s="3">
-        <v>77500</v>
+        <v>-56600</v>
       </c>
       <c r="G102" s="3">
-        <v>-67400</v>
+        <v>76700</v>
       </c>
       <c r="H102" s="3">
-        <v>23100</v>
+        <v>-66700</v>
       </c>
       <c r="I102" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>22900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-46500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="E8" s="3">
-        <v>134000</v>
+        <v>129800</v>
       </c>
       <c r="F8" s="3">
-        <v>348500</v>
+        <v>337700</v>
       </c>
       <c r="G8" s="3">
-        <v>511700</v>
+        <v>495900</v>
       </c>
       <c r="H8" s="3">
-        <v>324400</v>
+        <v>314400</v>
       </c>
       <c r="I8" s="3">
-        <v>255700</v>
+        <v>247800</v>
       </c>
       <c r="J8" s="3">
-        <v>209800</v>
+        <v>203300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31400</v>
+        <v>30500</v>
       </c>
       <c r="E9" s="3">
-        <v>118800</v>
+        <v>115200</v>
       </c>
       <c r="F9" s="3">
-        <v>289500</v>
+        <v>280600</v>
       </c>
       <c r="G9" s="3">
-        <v>404000</v>
+        <v>391600</v>
       </c>
       <c r="H9" s="3">
-        <v>256700</v>
+        <v>248800</v>
       </c>
       <c r="I9" s="3">
-        <v>201400</v>
+        <v>195200</v>
       </c>
       <c r="J9" s="3">
-        <v>177300</v>
+        <v>171900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E10" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="F10" s="3">
-        <v>58900</v>
+        <v>57100</v>
       </c>
       <c r="G10" s="3">
-        <v>107600</v>
+        <v>104300</v>
       </c>
       <c r="H10" s="3">
-        <v>67800</v>
+        <v>65700</v>
       </c>
       <c r="I10" s="3">
-        <v>54200</v>
+        <v>52600</v>
       </c>
       <c r="J10" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="F12" s="3">
-        <v>42800</v>
+        <v>41500</v>
       </c>
       <c r="G12" s="3">
-        <v>103100</v>
+        <v>99900</v>
       </c>
       <c r="H12" s="3">
-        <v>28800</v>
+        <v>28000</v>
       </c>
       <c r="I12" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -936,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
-        <v>36400</v>
+        <v>35300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>81500</v>
+        <v>79000</v>
       </c>
       <c r="E17" s="3">
-        <v>306400</v>
+        <v>297000</v>
       </c>
       <c r="F17" s="3">
-        <v>380600</v>
+        <v>368900</v>
       </c>
       <c r="G17" s="3">
-        <v>590200</v>
+        <v>572100</v>
       </c>
       <c r="H17" s="3">
-        <v>314600</v>
+        <v>304900</v>
       </c>
       <c r="I17" s="3">
-        <v>256400</v>
+        <v>248500</v>
       </c>
       <c r="J17" s="3">
-        <v>261500</v>
+        <v>253500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46600</v>
+        <v>-45100</v>
       </c>
       <c r="E18" s="3">
-        <v>-172500</v>
+        <v>-167200</v>
       </c>
       <c r="F18" s="3">
-        <v>-32100</v>
+        <v>-31100</v>
       </c>
       <c r="G18" s="3">
-        <v>-78600</v>
+        <v>-76200</v>
       </c>
       <c r="H18" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-51700</v>
+        <v>-50100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="E20" s="3">
         <v>2700</v>
@@ -1132,16 +1132,16 @@
         <v>2700</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I20" s="3">
         <v>1100</v>
       </c>
       <c r="J20" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-32600</v>
+        <v>-31600</v>
       </c>
       <c r="E21" s="3">
-        <v>-168600</v>
+        <v>-163500</v>
       </c>
       <c r="F21" s="3">
-        <v>-28800</v>
+        <v>-28000</v>
       </c>
       <c r="G21" s="3">
-        <v>-71300</v>
+        <v>-69100</v>
       </c>
       <c r="H21" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="I21" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J21" s="3">
-        <v>-43500</v>
+        <v>-42200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="E23" s="3">
-        <v>-169700</v>
+        <v>-164500</v>
       </c>
       <c r="F23" s="3">
-        <v>-29400</v>
+        <v>-28500</v>
       </c>
       <c r="G23" s="3">
-        <v>-72000</v>
+        <v>-69800</v>
       </c>
       <c r="H23" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>-47000</v>
+        <v>-45600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,13 +1279,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34100</v>
+        <v>-33000</v>
       </c>
       <c r="E26" s="3">
-        <v>-171000</v>
+        <v>-165700</v>
       </c>
       <c r="F26" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="G26" s="3">
-        <v>-72600</v>
+        <v>-70300</v>
       </c>
       <c r="H26" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>-47200</v>
+        <v>-45800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34700</v>
+        <v>-33600</v>
       </c>
       <c r="E27" s="3">
-        <v>-166500</v>
+        <v>-161400</v>
       </c>
       <c r="F27" s="3">
-        <v>-31300</v>
+        <v>-30400</v>
       </c>
       <c r="G27" s="3">
-        <v>-180400</v>
+        <v>-174800</v>
       </c>
       <c r="H27" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I27" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="J27" s="3">
-        <v>-76300</v>
+        <v>-73900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E32" s="3">
         <v>-2700</v>
@@ -1600,16 +1600,16 @@
         <v>-2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="I32" s="3">
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34700</v>
+        <v>-33600</v>
       </c>
       <c r="E33" s="3">
-        <v>-166500</v>
+        <v>-161400</v>
       </c>
       <c r="F33" s="3">
-        <v>-31300</v>
+        <v>-30400</v>
       </c>
       <c r="G33" s="3">
-        <v>-180400</v>
+        <v>-174800</v>
       </c>
       <c r="H33" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I33" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="J33" s="3">
-        <v>-76300</v>
+        <v>-73900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34700</v>
+        <v>-33600</v>
       </c>
       <c r="E35" s="3">
-        <v>-166500</v>
+        <v>-161400</v>
       </c>
       <c r="F35" s="3">
-        <v>-31300</v>
+        <v>-30400</v>
       </c>
       <c r="G35" s="3">
-        <v>-180400</v>
+        <v>-174800</v>
       </c>
       <c r="H35" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I35" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="J35" s="3">
-        <v>-76300</v>
+        <v>-73900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="E41" s="3">
-        <v>70000</v>
+        <v>67800</v>
       </c>
       <c r="F41" s="3">
-        <v>119900</v>
+        <v>116200</v>
       </c>
       <c r="G41" s="3">
-        <v>156900</v>
+        <v>152100</v>
       </c>
       <c r="H41" s="3">
-        <v>63100</v>
+        <v>61100</v>
       </c>
       <c r="I41" s="3">
-        <v>81600</v>
+        <v>79000</v>
       </c>
       <c r="J41" s="3">
-        <v>145400</v>
+        <v>140900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1867,22 +1867,22 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="I42" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J42" s="3">
-        <v>41400</v>
+        <v>40200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>83900</v>
+        <v>81300</v>
       </c>
       <c r="E43" s="3">
-        <v>125800</v>
+        <v>121900</v>
       </c>
       <c r="F43" s="3">
-        <v>320100</v>
+        <v>310300</v>
       </c>
       <c r="G43" s="3">
-        <v>311300</v>
+        <v>301700</v>
       </c>
       <c r="H43" s="3">
-        <v>192300</v>
+        <v>186400</v>
       </c>
       <c r="I43" s="3">
-        <v>117700</v>
+        <v>114100</v>
       </c>
       <c r="J43" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="E45" s="3">
-        <v>34700</v>
+        <v>33700</v>
       </c>
       <c r="F45" s="3">
-        <v>39600</v>
+        <v>38400</v>
       </c>
       <c r="G45" s="3">
-        <v>60400</v>
+        <v>58500</v>
       </c>
       <c r="H45" s="3">
-        <v>79800</v>
+        <v>77400</v>
       </c>
       <c r="I45" s="3">
-        <v>182200</v>
+        <v>176600</v>
       </c>
       <c r="J45" s="3">
-        <v>34400</v>
+        <v>33300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>122100</v>
+        <v>118300</v>
       </c>
       <c r="E46" s="3">
-        <v>231300</v>
+        <v>224200</v>
       </c>
       <c r="F46" s="3">
-        <v>494000</v>
+        <v>478800</v>
       </c>
       <c r="G46" s="3">
-        <v>530200</v>
+        <v>513900</v>
       </c>
       <c r="H46" s="3">
-        <v>345300</v>
+        <v>334700</v>
       </c>
       <c r="I46" s="3">
-        <v>386100</v>
+        <v>374200</v>
       </c>
       <c r="J46" s="3">
-        <v>248800</v>
+        <v>241100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="E47" s="3">
-        <v>38500</v>
+        <v>37400</v>
       </c>
       <c r="F47" s="3">
-        <v>72300</v>
+        <v>70100</v>
       </c>
       <c r="G47" s="3">
-        <v>88000</v>
+        <v>85300</v>
       </c>
       <c r="H47" s="3">
-        <v>57200</v>
+        <v>55400</v>
       </c>
       <c r="I47" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="J47" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2101,22 +2101,22 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
-      </c>
       <c r="I48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J48" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2260,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
       </c>
       <c r="J52" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153000</v>
+        <v>148300</v>
       </c>
       <c r="E54" s="3">
-        <v>271900</v>
+        <v>263600</v>
       </c>
       <c r="F54" s="3">
-        <v>575400</v>
+        <v>557700</v>
       </c>
       <c r="G54" s="3">
-        <v>621500</v>
+        <v>602400</v>
       </c>
       <c r="H54" s="3">
-        <v>409300</v>
+        <v>396700</v>
       </c>
       <c r="I54" s="3">
-        <v>404300</v>
+        <v>391800</v>
       </c>
       <c r="J54" s="3">
-        <v>267500</v>
+        <v>259200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107600</v>
+        <v>104300</v>
       </c>
       <c r="E57" s="3">
-        <v>167200</v>
+        <v>162000</v>
       </c>
       <c r="F57" s="3">
-        <v>255300</v>
+        <v>247500</v>
       </c>
       <c r="G57" s="3">
-        <v>269700</v>
+        <v>261500</v>
       </c>
       <c r="H57" s="3">
-        <v>160400</v>
+        <v>155500</v>
       </c>
       <c r="I57" s="3">
-        <v>84400</v>
+        <v>81800</v>
       </c>
       <c r="J57" s="3">
-        <v>36300</v>
+        <v>35100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E58" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="F58" s="3">
-        <v>63000</v>
+        <v>61100</v>
       </c>
       <c r="G58" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="H58" s="3">
-        <v>56100</v>
+        <v>54400</v>
       </c>
       <c r="I58" s="3">
-        <v>94300</v>
+        <v>91400</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="E59" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="F59" s="3">
-        <v>45200</v>
+        <v>43800</v>
       </c>
       <c r="G59" s="3">
-        <v>54500</v>
+        <v>52800</v>
       </c>
       <c r="H59" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="I59" s="3">
-        <v>117900</v>
+        <v>114300</v>
       </c>
       <c r="J59" s="3">
-        <v>118500</v>
+        <v>114800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>135000</v>
+        <v>130900</v>
       </c>
       <c r="E60" s="3">
-        <v>224700</v>
+        <v>217800</v>
       </c>
       <c r="F60" s="3">
-        <v>363600</v>
+        <v>352400</v>
       </c>
       <c r="G60" s="3">
-        <v>393900</v>
+        <v>381800</v>
       </c>
       <c r="H60" s="3">
-        <v>283000</v>
+        <v>274300</v>
       </c>
       <c r="I60" s="3">
-        <v>296500</v>
+        <v>287400</v>
       </c>
       <c r="J60" s="3">
-        <v>154700</v>
+        <v>150000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1800</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>138800</v>
+        <v>134600</v>
       </c>
       <c r="E66" s="3">
-        <v>227400</v>
+        <v>220400</v>
       </c>
       <c r="F66" s="3">
-        <v>370200</v>
+        <v>358800</v>
       </c>
       <c r="G66" s="3">
-        <v>395600</v>
+        <v>383500</v>
       </c>
       <c r="H66" s="3">
-        <v>284800</v>
+        <v>276000</v>
       </c>
       <c r="I66" s="3">
-        <v>297200</v>
+        <v>288000</v>
       </c>
       <c r="J66" s="3">
-        <v>155000</v>
+        <v>150200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>390700</v>
+        <v>378700</v>
       </c>
       <c r="I70" s="3">
-        <v>335800</v>
+        <v>325500</v>
       </c>
       <c r="J70" s="3">
-        <v>324600</v>
+        <v>314600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-647900</v>
+        <v>-628000</v>
       </c>
       <c r="E72" s="3">
-        <v>-613200</v>
+        <v>-594300</v>
       </c>
       <c r="F72" s="3">
-        <v>-446700</v>
+        <v>-433000</v>
       </c>
       <c r="G72" s="3">
-        <v>-415400</v>
+        <v>-402600</v>
       </c>
       <c r="H72" s="3">
-        <v>-235000</v>
+        <v>-227800</v>
       </c>
       <c r="I72" s="3">
-        <v>-214500</v>
+        <v>-207900</v>
       </c>
       <c r="J72" s="3">
-        <v>-182100</v>
+        <v>-176500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="E76" s="3">
-        <v>44500</v>
+        <v>43200</v>
       </c>
       <c r="F76" s="3">
-        <v>205200</v>
+        <v>198900</v>
       </c>
       <c r="G76" s="3">
-        <v>225900</v>
+        <v>218900</v>
       </c>
       <c r="H76" s="3">
-        <v>-266200</v>
+        <v>-258000</v>
       </c>
       <c r="I76" s="3">
-        <v>-228700</v>
+        <v>-221700</v>
       </c>
       <c r="J76" s="3">
-        <v>-212100</v>
+        <v>-205500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34700</v>
+        <v>-33600</v>
       </c>
       <c r="E81" s="3">
-        <v>-166500</v>
+        <v>-161400</v>
       </c>
       <c r="F81" s="3">
-        <v>-31300</v>
+        <v>-30400</v>
       </c>
       <c r="G81" s="3">
-        <v>-180400</v>
+        <v>-174800</v>
       </c>
       <c r="H81" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I81" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="J81" s="3">
-        <v>-76300</v>
+        <v>-73900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3317,10 +3317,10 @@
         <v>2000</v>
       </c>
       <c r="I83" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="E89" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="F89" s="3">
-        <v>-46200</v>
+        <v>-44800</v>
       </c>
       <c r="G89" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="H89" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="I89" s="3">
-        <v>-95900</v>
+        <v>-92900</v>
       </c>
       <c r="J89" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3595,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -3607,10 +3607,10 @@
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22600</v>
+        <v>-21900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="F94" s="3">
         <v>800</v>
       </c>
       <c r="G94" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="H94" s="3">
-        <v>-49700</v>
+        <v>-48200</v>
       </c>
       <c r="I94" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="J94" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-43700</v>
+        <v>-42300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="G100" s="3">
-        <v>84400</v>
+        <v>81800</v>
       </c>
       <c r="H100" s="3">
-        <v>-38100</v>
+        <v>-36900</v>
       </c>
       <c r="I100" s="3">
-        <v>94300</v>
+        <v>91400</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3963,22 +3963,22 @@
         <v>1600</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="J101" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-47400</v>
+        <v>-45900</v>
       </c>
       <c r="E102" s="3">
-        <v>-59700</v>
+        <v>-57800</v>
       </c>
       <c r="F102" s="3">
-        <v>-56600</v>
+        <v>-54800</v>
       </c>
       <c r="G102" s="3">
-        <v>76700</v>
+        <v>74400</v>
       </c>
       <c r="H102" s="3">
-        <v>-66700</v>
+        <v>-64700</v>
       </c>
       <c r="I102" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="J102" s="3">
-        <v>-46500</v>
+        <v>-45100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DUO_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>33900</v>
+        <v>34000</v>
       </c>
       <c r="E8" s="3">
-        <v>129800</v>
+        <v>130100</v>
       </c>
       <c r="F8" s="3">
-        <v>337700</v>
+        <v>338500</v>
       </c>
       <c r="G8" s="3">
-        <v>495900</v>
+        <v>497000</v>
       </c>
       <c r="H8" s="3">
-        <v>314400</v>
+        <v>315100</v>
       </c>
       <c r="I8" s="3">
-        <v>247800</v>
+        <v>248300</v>
       </c>
       <c r="J8" s="3">
-        <v>203300</v>
+        <v>203800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -766,22 +766,22 @@
         <v>30500</v>
       </c>
       <c r="E9" s="3">
-        <v>115200</v>
+        <v>115400</v>
       </c>
       <c r="F9" s="3">
-        <v>280600</v>
+        <v>281200</v>
       </c>
       <c r="G9" s="3">
-        <v>391600</v>
+        <v>392500</v>
       </c>
       <c r="H9" s="3">
-        <v>248800</v>
+        <v>249300</v>
       </c>
       <c r="I9" s="3">
-        <v>195200</v>
+        <v>195700</v>
       </c>
       <c r="J9" s="3">
-        <v>171900</v>
+        <v>172200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -808,16 +808,16 @@
         <v>14700</v>
       </c>
       <c r="F10" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="G10" s="3">
-        <v>104300</v>
+        <v>104500</v>
       </c>
       <c r="H10" s="3">
-        <v>65700</v>
+        <v>65800</v>
       </c>
       <c r="I10" s="3">
-        <v>52600</v>
+        <v>52700</v>
       </c>
       <c r="J10" s="3">
         <v>31500</v>
@@ -864,16 +864,16 @@
         <v>23100</v>
       </c>
       <c r="F12" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G12" s="3">
-        <v>99900</v>
+        <v>100100</v>
       </c>
       <c r="H12" s="3">
         <v>28000</v>
       </c>
       <c r="I12" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="J12" s="3">
         <v>25200</v>
@@ -939,7 +939,7 @@
         <v>10800</v>
       </c>
       <c r="E14" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79000</v>
+        <v>79200</v>
       </c>
       <c r="E17" s="3">
-        <v>297000</v>
+        <v>297700</v>
       </c>
       <c r="F17" s="3">
-        <v>368900</v>
+        <v>369700</v>
       </c>
       <c r="G17" s="3">
-        <v>572100</v>
+        <v>573300</v>
       </c>
       <c r="H17" s="3">
-        <v>304900</v>
+        <v>305500</v>
       </c>
       <c r="I17" s="3">
-        <v>248500</v>
+        <v>249000</v>
       </c>
       <c r="J17" s="3">
-        <v>253500</v>
+        <v>254000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,16 +1067,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45100</v>
+        <v>-45200</v>
       </c>
       <c r="E18" s="3">
-        <v>-167200</v>
+        <v>-167500</v>
       </c>
       <c r="F18" s="3">
-        <v>-31100</v>
+        <v>-31200</v>
       </c>
       <c r="G18" s="3">
-        <v>-76200</v>
+        <v>-76300</v>
       </c>
       <c r="H18" s="3">
         <v>9600</v>
@@ -1085,7 +1085,7 @@
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31600</v>
+        <v>-31700</v>
       </c>
       <c r="E21" s="3">
-        <v>-163500</v>
+        <v>-163800</v>
       </c>
       <c r="F21" s="3">
         <v>-28000</v>
       </c>
       <c r="G21" s="3">
-        <v>-69100</v>
+        <v>-69300</v>
       </c>
       <c r="H21" s="3">
         <v>16900</v>
@@ -1180,7 +1180,7 @@
         <v>4600</v>
       </c>
       <c r="J21" s="3">
-        <v>-42200</v>
+        <v>-42300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>-32000</v>
       </c>
       <c r="E23" s="3">
-        <v>-164500</v>
+        <v>-164900</v>
       </c>
       <c r="F23" s="3">
         <v>-28500</v>
       </c>
       <c r="G23" s="3">
-        <v>-69800</v>
+        <v>-70000</v>
       </c>
       <c r="H23" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>-45600</v>
+        <v>-45700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33000</v>
+        <v>-33100</v>
       </c>
       <c r="E26" s="3">
-        <v>-165700</v>
+        <v>-166100</v>
       </c>
       <c r="F26" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="G26" s="3">
-        <v>-70300</v>
+        <v>-70500</v>
       </c>
       <c r="H26" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>-45800</v>
+        <v>-45900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="E27" s="3">
-        <v>-161400</v>
+        <v>-161700</v>
       </c>
       <c r="F27" s="3">
         <v>-30400</v>
       </c>
       <c r="G27" s="3">
-        <v>-174800</v>
+        <v>-175200</v>
       </c>
       <c r="H27" s="3">
         <v>-19900</v>
       </c>
       <c r="I27" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="J27" s="3">
-        <v>-73900</v>
+        <v>-74100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="E33" s="3">
-        <v>-161400</v>
+        <v>-161700</v>
       </c>
       <c r="F33" s="3">
         <v>-30400</v>
       </c>
       <c r="G33" s="3">
-        <v>-174800</v>
+        <v>-175200</v>
       </c>
       <c r="H33" s="3">
         <v>-19900</v>
       </c>
       <c r="I33" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="J33" s="3">
-        <v>-73900</v>
+        <v>-74100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="E35" s="3">
-        <v>-161400</v>
+        <v>-161700</v>
       </c>
       <c r="F35" s="3">
         <v>-30400</v>
       </c>
       <c r="G35" s="3">
-        <v>-174800</v>
+        <v>-175200</v>
       </c>
       <c r="H35" s="3">
         <v>-19900</v>
       </c>
       <c r="I35" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="J35" s="3">
-        <v>-73900</v>
+        <v>-74100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="E41" s="3">
-        <v>67800</v>
+        <v>68000</v>
       </c>
       <c r="F41" s="3">
-        <v>116200</v>
+        <v>116500</v>
       </c>
       <c r="G41" s="3">
-        <v>152100</v>
+        <v>152400</v>
       </c>
       <c r="H41" s="3">
-        <v>61100</v>
+        <v>61300</v>
       </c>
       <c r="I41" s="3">
-        <v>79000</v>
+        <v>79200</v>
       </c>
       <c r="J41" s="3">
-        <v>140900</v>
+        <v>141200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1870,19 +1870,19 @@
         <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="I42" s="3">
         <v>4500</v>
       </c>
       <c r="J42" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81300</v>
+        <v>81500</v>
       </c>
       <c r="E43" s="3">
-        <v>121900</v>
+        <v>122200</v>
       </c>
       <c r="F43" s="3">
-        <v>310300</v>
+        <v>311000</v>
       </c>
       <c r="G43" s="3">
-        <v>301700</v>
+        <v>302400</v>
       </c>
       <c r="H43" s="3">
-        <v>186400</v>
+        <v>186800</v>
       </c>
       <c r="I43" s="3">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="J43" s="3">
         <v>26800</v>
@@ -1987,19 +1987,19 @@
         <v>33700</v>
       </c>
       <c r="F45" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="G45" s="3">
-        <v>58500</v>
+        <v>58700</v>
       </c>
       <c r="H45" s="3">
-        <v>77400</v>
+        <v>77500</v>
       </c>
       <c r="I45" s="3">
-        <v>176600</v>
+        <v>177000</v>
       </c>
       <c r="J45" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118300</v>
+        <v>118600</v>
       </c>
       <c r="E46" s="3">
-        <v>224200</v>
+        <v>224700</v>
       </c>
       <c r="F46" s="3">
-        <v>478800</v>
+        <v>479900</v>
       </c>
       <c r="G46" s="3">
-        <v>513900</v>
+        <v>515000</v>
       </c>
       <c r="H46" s="3">
-        <v>334700</v>
+        <v>335400</v>
       </c>
       <c r="I46" s="3">
-        <v>374200</v>
+        <v>375000</v>
       </c>
       <c r="J46" s="3">
-        <v>241100</v>
+        <v>241700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="E47" s="3">
         <v>37400</v>
       </c>
       <c r="F47" s="3">
-        <v>70100</v>
+        <v>70200</v>
       </c>
       <c r="G47" s="3">
-        <v>85300</v>
+        <v>85500</v>
       </c>
       <c r="H47" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="I47" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="J47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2113,7 +2113,7 @@
         <v>2100</v>
       </c>
       <c r="I48" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J48" s="3">
         <v>6700</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>148300</v>
+        <v>148700</v>
       </c>
       <c r="E54" s="3">
-        <v>263600</v>
+        <v>264100</v>
       </c>
       <c r="F54" s="3">
-        <v>557700</v>
+        <v>558900</v>
       </c>
       <c r="G54" s="3">
-        <v>602400</v>
+        <v>603700</v>
       </c>
       <c r="H54" s="3">
-        <v>396700</v>
+        <v>397600</v>
       </c>
       <c r="I54" s="3">
-        <v>391800</v>
+        <v>392700</v>
       </c>
       <c r="J54" s="3">
-        <v>259200</v>
+        <v>259800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104300</v>
+        <v>104500</v>
       </c>
       <c r="E57" s="3">
-        <v>162000</v>
+        <v>162400</v>
       </c>
       <c r="F57" s="3">
-        <v>247500</v>
+        <v>248000</v>
       </c>
       <c r="G57" s="3">
-        <v>261500</v>
+        <v>262000</v>
       </c>
       <c r="H57" s="3">
-        <v>155500</v>
+        <v>155800</v>
       </c>
       <c r="I57" s="3">
-        <v>81800</v>
+        <v>81900</v>
       </c>
       <c r="J57" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2450,16 +2450,16 @@
         <v>18600</v>
       </c>
       <c r="F58" s="3">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="G58" s="3">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="H58" s="3">
-        <v>54400</v>
+        <v>54500</v>
       </c>
       <c r="I58" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2486,22 +2486,22 @@
         <v>16600</v>
       </c>
       <c r="E59" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="F59" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="G59" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="H59" s="3">
-        <v>64400</v>
+        <v>64600</v>
       </c>
       <c r="I59" s="3">
-        <v>114300</v>
+        <v>114500</v>
       </c>
       <c r="J59" s="3">
-        <v>114800</v>
+        <v>115100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>130900</v>
+        <v>131100</v>
       </c>
       <c r="E60" s="3">
-        <v>217800</v>
+        <v>218300</v>
       </c>
       <c r="F60" s="3">
-        <v>352400</v>
+        <v>353200</v>
       </c>
       <c r="G60" s="3">
-        <v>381800</v>
+        <v>382600</v>
       </c>
       <c r="H60" s="3">
-        <v>274300</v>
+        <v>274900</v>
       </c>
       <c r="I60" s="3">
-        <v>287400</v>
+        <v>288000</v>
       </c>
       <c r="J60" s="3">
-        <v>150000</v>
+        <v>150300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
         <v>3900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>134600</v>
+        <v>134800</v>
       </c>
       <c r="E66" s="3">
-        <v>220400</v>
+        <v>220900</v>
       </c>
       <c r="F66" s="3">
-        <v>358800</v>
+        <v>359600</v>
       </c>
       <c r="G66" s="3">
-        <v>383500</v>
+        <v>384300</v>
       </c>
       <c r="H66" s="3">
-        <v>276000</v>
+        <v>276600</v>
       </c>
       <c r="I66" s="3">
-        <v>288000</v>
+        <v>288700</v>
       </c>
       <c r="J66" s="3">
-        <v>150200</v>
+        <v>150500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>378700</v>
+        <v>379500</v>
       </c>
       <c r="I70" s="3">
-        <v>325500</v>
+        <v>326200</v>
       </c>
       <c r="J70" s="3">
-        <v>314600</v>
+        <v>315300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-628000</v>
+        <v>-629300</v>
       </c>
       <c r="E72" s="3">
-        <v>-594300</v>
+        <v>-595600</v>
       </c>
       <c r="F72" s="3">
-        <v>-433000</v>
+        <v>-433900</v>
       </c>
       <c r="G72" s="3">
-        <v>-402600</v>
+        <v>-403500</v>
       </c>
       <c r="H72" s="3">
-        <v>-227800</v>
+        <v>-228300</v>
       </c>
       <c r="I72" s="3">
-        <v>-207900</v>
+        <v>-208400</v>
       </c>
       <c r="J72" s="3">
-        <v>-176500</v>
+        <v>-176900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3127,22 +3127,22 @@
         <v>13800</v>
       </c>
       <c r="E76" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="F76" s="3">
-        <v>198900</v>
+        <v>199300</v>
       </c>
       <c r="G76" s="3">
-        <v>218900</v>
+        <v>219400</v>
       </c>
       <c r="H76" s="3">
-        <v>-258000</v>
+        <v>-258600</v>
       </c>
       <c r="I76" s="3">
-        <v>-221700</v>
+        <v>-222200</v>
       </c>
       <c r="J76" s="3">
-        <v>-205500</v>
+        <v>-206000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="E81" s="3">
-        <v>-161400</v>
+        <v>-161700</v>
       </c>
       <c r="F81" s="3">
         <v>-30400</v>
       </c>
       <c r="G81" s="3">
-        <v>-174800</v>
+        <v>-175200</v>
       </c>
       <c r="H81" s="3">
         <v>-19900</v>
       </c>
       <c r="I81" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="J81" s="3">
-        <v>-73900</v>
+        <v>-74100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3542,19 +3542,19 @@
         <v>-8400</v>
       </c>
       <c r="F89" s="3">
-        <v>-44800</v>
+        <v>-44900</v>
       </c>
       <c r="G89" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="H89" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="I89" s="3">
-        <v>-92900</v>
+        <v>-93100</v>
       </c>
       <c r="J89" s="3">
-        <v>-24400</v>
+        <v>-24500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="E94" s="3">
         <v>-6000</v>
@@ -3718,13 +3718,13 @@
         <v>800</v>
       </c>
       <c r="G94" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="H94" s="3">
-        <v>-48200</v>
+        <v>-48300</v>
       </c>
       <c r="I94" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="J94" s="3">
         <v>-26900</v>
@@ -3924,19 +3924,19 @@
         <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-42300</v>
+        <v>-42400</v>
       </c>
       <c r="F100" s="3">
         <v>-6400</v>
       </c>
       <c r="G100" s="3">
-        <v>81800</v>
+        <v>81900</v>
       </c>
       <c r="H100" s="3">
-        <v>-36900</v>
+        <v>-37000</v>
       </c>
       <c r="I100" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-45900</v>
+        <v>-46000</v>
       </c>
       <c r="E102" s="3">
-        <v>-57800</v>
+        <v>-58000</v>
       </c>
       <c r="F102" s="3">
-        <v>-54800</v>
+        <v>-54900</v>
       </c>
       <c r="G102" s="3">
-        <v>74400</v>
+        <v>74500</v>
       </c>
       <c r="H102" s="3">
-        <v>-64700</v>
+        <v>-64800</v>
       </c>
       <c r="I102" s="3">
         <v>22200</v>
       </c>
       <c r="J102" s="3">
-        <v>-45100</v>
+        <v>-45200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
